--- a/20_営業/07_会計/TE030/T_TE030_CFO_014_A03_部門別損益計算書(営業損益 新版)_財務レポート.xlsx
+++ b/20_営業/07_会計/TE030/T_TE030_CFO_014_A03_部門別損益計算書(営業損益 新版)_財務レポート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\16_単体テスト実施\外部結合完了時\BIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\92_分社化\20_構築\10_成果物\20_単体テスト仕様書\13_部門別損益計算書(営業損益 新版)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -29,16 +29,18 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ10)" sheetId="24" r:id="rId15"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ11)" sheetId="25" r:id="rId16"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ12)" sheetId="26" r:id="rId17"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId18"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId19"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ13)" sheetId="27" r:id="rId18"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId19"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_データ・プロファイル!$A$1:$C$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_データ・プロファイル!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'テスト仕様_テスト結果(テスト・シナリオ10)'!$A$1:$I$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'テスト仕様_テスト結果(テスト・シナリオ11)'!$A$1:$I$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'テスト仕様_テスト結果(テスト・シナリオ12)'!$A$1:$I$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'テスト仕様_テスト結果(テスト・シナリオ13)'!$A$1:$I$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ3)'!$A$1:$I$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$65</definedName>
@@ -49,9 +51,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">'テスト仕様_テスト結果(テスト・シナリオ9)'!$A$1:$I$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4246" uniqueCount="830">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -3362,13 +3364,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>対象データ抽出・データ出力（千円単位_部門レベル6）</t>
-  </si>
-  <si>
-    <t>Issue1.0</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>SCSK 二村悠香</t>
     <rPh sb="5" eb="9">
       <t>フタムラハルカカ</t>
@@ -3384,6 +3379,1231 @@
     <rPh sb="5" eb="6">
       <t>カ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼動_19496対応</t>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>対象データ抽出・データ出力（千円単位_部門レベル6）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ13</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ13</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>会社がパラメータとして追加され、会社の値セット（XX03_COMPANY）が選択可能となっています。</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シナリオ13</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜レイアウトの確認＞
+出力要件
+・形式：A4縦
+・レイアウト：機能設計書(T_MD050_CFO_014_A03)のレイアウトに従う
+・対象：千円単位レベル1</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュツリョクヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>センエンタンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ/セキュリティの確認
+検索条件
+・会社：002
+・部門：3530（札幌南部支店）
+・期間：2024-4
+ユーザー
+1011の拠点ユーザー</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>サッポロナンブ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記条件のデータが出力されます。</t>
+    <rPh sb="0" eb="4">
+      <t>サキジョウケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜レイアウトの確認＞
+出力要件
+・形式：A4縦
+・レイアウト：機能設計書(T_MD050_CFO_014_A03)のレイアウトに従う
+・対象：千円単位レベル2</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュツリョクヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>センエンタンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラメータの確認
+・対象：千円単位レベル1</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラメータの確認
+・対象：千円単位レベル2</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜レイアウトの確認＞
+出力要件
+・形式：A4縦
+・レイアウト：機能設計書(T_MD050_CFO_014_A03)のレイアウトに従う
+・対象：千円単位レベル3</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュツリョクヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>センエンタンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラメータの確認
+・対象：千円単位レベル3</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜レイアウトの確認＞
+出力要件
+・形式：A4縦
+・レイアウト：機能設計書(T_MD050_CFO_014_A03)のレイアウトに従う
+・対象：千円単位レベル4</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュツリョクヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>センエンタンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラメータの確認
+・対象：千円単位レベル4</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜レイアウトの確認＞
+出力要件
+・形式：A4縦
+・レイアウト：機能設計書(T_MD050_CFO_014_A03)のレイアウトに従う
+・対象：千円単位レベル5</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュツリョクヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>センエンタンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラメータの確認
+・対象：千円単位レベル5</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜レイアウトの確認＞
+出力要件
+・形式：A4縦
+・レイアウト：機能設計書(T_MD050_CFO_014_A03)のレイアウトに従う
+・対象：千円単位レベル6</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュツリョクヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>センエンタンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラメータの確認
+・対象：千円単位レベル6</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜レイアウトの確認＞
+出力要件
+・形式：A4縦
+・レイアウト：機能設計書(T_MD050_CFO_014_A03)のレイアウトに従う
+・対象：千円単位レベル6部門別</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュツリョクヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>センエンタンイ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ブモンベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラメータの確認
+・対象：千円単位レベル6部門別</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ブモンベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜レイアウトの確認＞
+出力要件
+・形式：A4縦
+・レイアウト：機能設計書(T_MD050_CFO_014_A03)のレイアウトに従う
+・対象：円単位レベル1</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュツリョクヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラメータの確認
+・対象：円単位レベル1</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜レイアウトの確認＞
+出力要件
+・形式：A4縦
+・レイアウト：機能設計書(T_MD050_CFO_014_A03)のレイアウトに従う
+・対象：円単位レベル2</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュツリョクヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラメータの確認
+・対象：円単位レベル2</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜レイアウトの確認＞
+出力要件
+・形式：A4縦
+・レイアウト：機能設計書(T_MD050_CFO_014_A03)のレイアウトに従う
+・対象：円単位レベル3</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュツリョクヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラメータの確認
+・対象：円単位レベル3</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜レイアウトの確認＞
+出力要件
+・形式：A4縦
+・レイアウト：機能設計書(T_MD050_CFO_014_A03)のレイアウトに従う
+・対象：円単位レベル4</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュツリョクヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラメータの確認
+・対象：円単位レベル4</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜レイアウトの確認＞
+出力要件
+・形式：A4縦
+・レイアウト：機能設計書(T_MD050_CFO_014_A03)のレイアウトに従う
+・対象：円単位レベル5</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュツリョクヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラメータの確認
+・対象：円単位レベル5</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜レイアウトの確認＞
+出力要件
+・形式：A4縦
+・レイアウト：機能設計書(T_MD050_CFO_014_A03)のレイアウトに従う
+・対象：円単位レベル6</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュツリョクヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラメータの確認
+・対象：円単位レベル6</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜レイアウトの確認＞
+出力要件
+・形式：A4縦
+・レイアウト：機能設計書(T_MD050_CFO_014_A03)のレイアウトに従う
+・対象：円単位レベル6部門別</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュツリョクヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ブモンベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラメータの確認
+・対象：円単位レベル6部門別</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ブモンベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ/セキュリティの確認
+検索条件
+・会社：002
+・部門：3530（札幌南部支店）
+・期間：2024-5
+ユーザー
+3530の拠点ユーザー
+対象
+円単位レベル6部門別</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>サッポロナンブ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ/セキュリティの確認
+検索条件
+・会社：002
+・部門：3530（札幌南部支店）
+・期間：2024-5
+ユーザー
+1011の拠点ユーザー
+対象
+円単位レベル6部門別</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>サッポロナンブ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ/セキュリティの確認
+検索条件
+・会社：001
+・部門：3530（札幌南部支店）
+・期間：2024-5
+ユーザー
+3530の拠点ユーザー
+対象
+円単位レベル6部門別</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>サッポロナンブ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ/セキュリティの確認
+検索条件
+・会社：001
+・部門：3530（札幌南部支店）
+・期間：2024-5
+ユーザー
+3014の拠点ユーザー
+対象
+円単位レベル6部門別</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>サッポロナンブ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ/セキュリティの確認
+検索条件
+・会社：001
+・部門：3530（札幌南部支店）
+・期間：2024-5
+ユーザー
+1011の拠点ユーザー
+対象
+円単位レベル6部門別</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>サッポロナンブ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ/セキュリティの確認
+検索条件
+・会社：002
+・部門：3530（札幌南部支店）
+・期間：2024-4
+ユーザー
+3530の拠点ユーザー
+対象
+円単位レベル6部門別</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>サッポロナンブ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ/セキュリティの確認
+検索条件
+・会社：002
+・部門：3530（札幌南部支店）
+・期間：2024-4
+ユーザー
+3014の拠点ユーザー
+対象
+円単位レベル6部門別</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>サッポロナンブ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ/セキュリティの確認
+検索条件
+・会社：001
+・部門：3530（札幌南部支店）
+・期間：2024-4
+ユーザー
+3530の拠点ユーザー
+対象
+円単位レベル6部門別</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>サッポロナンブ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ/セキュリティの確認
+検索条件
+・会社：001
+・部門：3530（札幌南部支店）
+・期間：2024-4
+ユーザー
+3014の拠点ユーザー
+対象
+円単位レベル6部門別</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>サッポロナンブ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ/セキュリティの確認
+検索条件
+・会社：001
+・部門：3530（札幌南部支店）
+・期間：2024-4
+ユーザー
+1011の拠点ユーザー
+対象
+円単位レベル6部門別</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>サッポロナンブ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>13-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>13-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>13-3</t>
+  </si>
+  <si>
+    <t>13-4</t>
+  </si>
+  <si>
+    <t>13-5</t>
+  </si>
+  <si>
+    <t>13-6</t>
+  </si>
+  <si>
+    <t>13-7</t>
+  </si>
+  <si>
+    <t>13-8</t>
+  </si>
+  <si>
+    <t>13-9</t>
+  </si>
+  <si>
+    <t>13-10</t>
+  </si>
+  <si>
+    <t>13-11</t>
+  </si>
+  <si>
+    <t>13-12</t>
+  </si>
+  <si>
+    <t>13-13</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>13-15</t>
+  </si>
+  <si>
+    <t>13-16</t>
+  </si>
+  <si>
+    <t>13-17</t>
+  </si>
+  <si>
+    <t>13-18</t>
+  </si>
+  <si>
+    <t>13-19</t>
+  </si>
+  <si>
+    <t>13-20</t>
+  </si>
+  <si>
+    <t>13-21</t>
+  </si>
+  <si>
+    <t>13-22</t>
+  </si>
+  <si>
+    <t>13-23</t>
+  </si>
+  <si>
+    <t>13-24</t>
+  </si>
+  <si>
+    <t>13-25</t>
+  </si>
+  <si>
+    <t>13-26</t>
+  </si>
+  <si>
+    <t>13-27</t>
+  </si>
+  <si>
+    <t>13-28</t>
+  </si>
+  <si>
+    <t>13-30</t>
+  </si>
+  <si>
+    <t>13-31</t>
+  </si>
+  <si>
+    <t>13-32</t>
+  </si>
+  <si>
+    <t>13-33</t>
+  </si>
+  <si>
+    <t>13-34</t>
+  </si>
+  <si>
+    <t>13-35</t>
+  </si>
+  <si>
+    <t>13-36</t>
+  </si>
+  <si>
+    <t>13-37</t>
+  </si>
+  <si>
+    <t>13-38</t>
+  </si>
+  <si>
+    <t>13-39</t>
+  </si>
+  <si>
+    <t>13-40</t>
+  </si>
+  <si>
+    <t>対象データ抽出・データ出力（E_本稼動_19496対応）</t>
+    <rPh sb="11" eb="13">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記条件のデータが出力されません。（0円表示）</t>
+    <rPh sb="0" eb="4">
+      <t>サキジョウケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記条件のデータが出力されません。（0円表示）</t>
+    <rPh sb="0" eb="4">
+      <t>サキジョウケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CFO_014_A03_部門別損益計算書(営業損益 新版)_財務レポート_エビデンス.xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>出力したPDFファイルが左記条件を満たしていることを確認。</t>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会社がパラメータとして追加され、会社の値セット（XX03_COMPANY）が選択可能となっていることを確認。</t>
+    <rPh sb="51" eb="53">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>二村</t>
+    <rPh sb="0" eb="2">
+      <t>フタムラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2023年度の財務レポートは会社コードをパラメータとしていな為実施不可（001固定で出力される）</t>
+    <rPh sb="4" eb="6">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザイム</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2023年度の財務レポートは会社コードをパラメータとしていな為実施不可（001固定で出力される）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>13-29</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ/セキュリティの確認
+検索条件
+・会社：002
+・部門：3530（札幌南部支店）
+・期間：2024-5
+ユーザー
+3014の拠点ユーザー
+対象
+円単位レベル6部門別</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>サッポロナンブ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3396,7 +4616,7 @@
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3569,6 +4789,36 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4217,7 +5467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4446,9 +5696,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4539,8 +5786,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4572,6 +5846,12 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="41" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -4583,6 +5863,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -4864,13 +6146,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.44140625" style="2" customWidth="1"/>
     <col min="6" max="257" width="9" style="2"/>
@@ -5218,15 +6500,15 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
     </row>
     <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
@@ -5235,41 +6517,41 @@
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
     </row>
     <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
     </row>
     <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="127" t="s">
         <v>705</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
@@ -5306,7 +6588,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>44965</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -5330,7 +6612,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -6009,28 +7291,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6044,10 +7326,10 @@
       <c r="D11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="112" t="s">
         <v>674</v>
       </c>
       <c r="G11" s="51" t="s">
@@ -6064,16 +7346,16 @@
       <c r="B12" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="112" t="s">
         <v>677</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -6096,7 +7378,7 @@
       <c r="D13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="112" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -6256,7 +7538,7 @@
       <c r="D19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="51" t="s">
@@ -6282,7 +7564,7 @@
       <c r="D20" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F20" s="51" t="s">
@@ -6308,7 +7590,7 @@
       <c r="D21" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F21" s="51" t="s">
@@ -6334,7 +7616,7 @@
       <c r="D22" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="51" t="s">
@@ -6361,7 +7643,7 @@
       <c r="D23" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="51" t="s">
@@ -6388,7 +7670,7 @@
       <c r="D24" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F24" s="51" t="s">
@@ -6414,7 +7696,7 @@
       <c r="D25" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F25" s="51" t="s">
@@ -6441,7 +7723,7 @@
       <c r="D26" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="51" t="s">
@@ -6468,7 +7750,7 @@
       <c r="D27" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="51" t="s">
@@ -6494,7 +7776,7 @@
       <c r="D28" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="51" t="s">
@@ -6520,7 +7802,7 @@
       <c r="D29" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F29" s="51" t="s">
@@ -6546,7 +7828,7 @@
       <c r="D30" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="51" t="s">
@@ -6572,7 +7854,7 @@
       <c r="D31" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F31" s="51" t="s">
@@ -6598,7 +7880,7 @@
       <c r="D32" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F32" s="51" t="s">
@@ -6624,7 +7906,7 @@
       <c r="D33" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="51" t="s">
@@ -6650,7 +7932,7 @@
       <c r="D34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F34" s="51" t="s">
@@ -6676,7 +7958,7 @@
       <c r="D35" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F35" s="51" t="s">
@@ -6702,7 +7984,7 @@
       <c r="D36" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F36" s="51" t="s">
@@ -6728,7 +8010,7 @@
       <c r="D37" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F37" s="51" t="s">
@@ -6754,7 +8036,7 @@
       <c r="D38" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="51" t="s">
@@ -6780,7 +8062,7 @@
       <c r="D39" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="51" t="s">
@@ -6806,7 +8088,7 @@
       <c r="D40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F40" s="51" t="s">
@@ -6832,7 +8114,7 @@
       <c r="D41" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F41" s="51" t="s">
@@ -6858,7 +8140,7 @@
       <c r="D42" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F42" s="51" t="s">
@@ -6884,7 +8166,7 @@
       <c r="D43" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="51" t="s">
@@ -6910,7 +8192,7 @@
       <c r="D44" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F44" s="51" t="s">
@@ -6936,7 +8218,7 @@
       <c r="D45" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F45" s="51" t="s">
@@ -6962,7 +8244,7 @@
       <c r="D46" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="113" t="s">
+      <c r="E46" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F46" s="51" t="s">
@@ -6988,7 +8270,7 @@
       <c r="D47" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="51" t="s">
@@ -7014,7 +8296,7 @@
       <c r="D48" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="113" t="s">
+      <c r="E48" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F48" s="51" t="s">
@@ -7040,7 +8322,7 @@
       <c r="D49" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F49" s="51" t="s">
@@ -7066,7 +8348,7 @@
       <c r="D50" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F50" s="51" t="s">
@@ -7092,7 +8374,7 @@
       <c r="D51" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="113" t="s">
+      <c r="E51" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="51" t="s">
@@ -7118,7 +8400,7 @@
       <c r="D52" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F52" s="51" t="s">
@@ -7144,7 +8426,7 @@
       <c r="D53" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F53" s="51" t="s">
@@ -7221,7 +8503,7 @@
       <c r="I59" s="35"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="115" t="s">
         <v>192</v>
       </c>
       <c r="C60" s="35"/>
@@ -7917,28 +9199,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7952,10 +9234,10 @@
       <c r="D11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="112" t="s">
         <v>674</v>
       </c>
       <c r="G11" s="51" t="s">
@@ -7972,16 +9254,16 @@
       <c r="B12" s="63" t="s">
         <v>372</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="112" t="s">
         <v>677</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -8004,7 +9286,7 @@
       <c r="D13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="112" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -8164,7 +9446,7 @@
       <c r="D19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="51" t="s">
@@ -8190,7 +9472,7 @@
       <c r="D20" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F20" s="51" t="s">
@@ -8216,7 +9498,7 @@
       <c r="D21" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F21" s="51" t="s">
@@ -8242,7 +9524,7 @@
       <c r="D22" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="51" t="s">
@@ -8269,7 +9551,7 @@
       <c r="D23" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="51" t="s">
@@ -8296,7 +9578,7 @@
       <c r="D24" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F24" s="51" t="s">
@@ -8322,7 +9604,7 @@
       <c r="D25" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F25" s="51" t="s">
@@ -8349,7 +9631,7 @@
       <c r="D26" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="51" t="s">
@@ -8376,7 +9658,7 @@
       <c r="D27" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="51" t="s">
@@ -8402,7 +9684,7 @@
       <c r="D28" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="51" t="s">
@@ -8428,7 +9710,7 @@
       <c r="D29" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F29" s="51" t="s">
@@ -8454,7 +9736,7 @@
       <c r="D30" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="51" t="s">
@@ -8480,7 +9762,7 @@
       <c r="D31" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F31" s="51" t="s">
@@ -8506,7 +9788,7 @@
       <c r="D32" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F32" s="51" t="s">
@@ -8532,7 +9814,7 @@
       <c r="D33" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="51" t="s">
@@ -8558,7 +9840,7 @@
       <c r="D34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F34" s="51" t="s">
@@ -8584,7 +9866,7 @@
       <c r="D35" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F35" s="51" t="s">
@@ -8610,7 +9892,7 @@
       <c r="D36" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F36" s="51" t="s">
@@ -8636,7 +9918,7 @@
       <c r="D37" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F37" s="51" t="s">
@@ -8662,7 +9944,7 @@
       <c r="D38" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="51" t="s">
@@ -8688,7 +9970,7 @@
       <c r="D39" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="51" t="s">
@@ -8714,7 +9996,7 @@
       <c r="D40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F40" s="51" t="s">
@@ -8740,7 +10022,7 @@
       <c r="D41" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F41" s="51" t="s">
@@ -8766,7 +10048,7 @@
       <c r="D42" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F42" s="51" t="s">
@@ -8792,7 +10074,7 @@
       <c r="D43" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="51" t="s">
@@ -8818,7 +10100,7 @@
       <c r="D44" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F44" s="51" t="s">
@@ -8844,7 +10126,7 @@
       <c r="D45" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F45" s="51" t="s">
@@ -8870,7 +10152,7 @@
       <c r="D46" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="113" t="s">
+      <c r="E46" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F46" s="51" t="s">
@@ -8896,7 +10178,7 @@
       <c r="D47" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="51" t="s">
@@ -8922,7 +10204,7 @@
       <c r="D48" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="113" t="s">
+      <c r="E48" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F48" s="51" t="s">
@@ -8948,7 +10230,7 @@
       <c r="D49" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F49" s="51" t="s">
@@ -8974,7 +10256,7 @@
       <c r="D50" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F50" s="51" t="s">
@@ -9000,7 +10282,7 @@
       <c r="D51" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="113" t="s">
+      <c r="E51" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="51" t="s">
@@ -9026,7 +10308,7 @@
       <c r="D52" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F52" s="51" t="s">
@@ -9052,7 +10334,7 @@
       <c r="D53" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F53" s="51" t="s">
@@ -9129,7 +10411,7 @@
       <c r="I59" s="35"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="115" t="s">
         <v>192</v>
       </c>
       <c r="C60" s="35"/>
@@ -9825,28 +11107,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9860,10 +11142,10 @@
       <c r="D11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="112" t="s">
         <v>674</v>
       </c>
       <c r="G11" s="51" t="s">
@@ -9880,16 +11162,16 @@
       <c r="B12" s="63" t="s">
         <v>415</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="112" t="s">
         <v>677</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -9912,7 +11194,7 @@
       <c r="D13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="112" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -10072,7 +11354,7 @@
       <c r="D19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="51" t="s">
@@ -10098,7 +11380,7 @@
       <c r="D20" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F20" s="51" t="s">
@@ -10124,7 +11406,7 @@
       <c r="D21" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F21" s="51" t="s">
@@ -10150,7 +11432,7 @@
       <c r="D22" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="51" t="s">
@@ -10177,7 +11459,7 @@
       <c r="D23" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="51" t="s">
@@ -10204,7 +11486,7 @@
       <c r="D24" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F24" s="51" t="s">
@@ -10230,7 +11512,7 @@
       <c r="D25" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F25" s="51" t="s">
@@ -10257,7 +11539,7 @@
       <c r="D26" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="51" t="s">
@@ -10284,7 +11566,7 @@
       <c r="D27" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="51" t="s">
@@ -10310,7 +11592,7 @@
       <c r="D28" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="51" t="s">
@@ -10336,7 +11618,7 @@
       <c r="D29" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F29" s="51" t="s">
@@ -10362,7 +11644,7 @@
       <c r="D30" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="51" t="s">
@@ -10388,7 +11670,7 @@
       <c r="D31" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F31" s="51" t="s">
@@ -10414,7 +11696,7 @@
       <c r="D32" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F32" s="51" t="s">
@@ -10440,7 +11722,7 @@
       <c r="D33" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="51" t="s">
@@ -10466,7 +11748,7 @@
       <c r="D34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F34" s="51" t="s">
@@ -10492,7 +11774,7 @@
       <c r="D35" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F35" s="51" t="s">
@@ -10518,7 +11800,7 @@
       <c r="D36" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F36" s="51" t="s">
@@ -10544,7 +11826,7 @@
       <c r="D37" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F37" s="51" t="s">
@@ -10570,7 +11852,7 @@
       <c r="D38" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="51" t="s">
@@ -10596,7 +11878,7 @@
       <c r="D39" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="51" t="s">
@@ -10622,7 +11904,7 @@
       <c r="D40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F40" s="51" t="s">
@@ -10648,7 +11930,7 @@
       <c r="D41" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F41" s="51" t="s">
@@ -10674,7 +11956,7 @@
       <c r="D42" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F42" s="51" t="s">
@@ -10700,7 +11982,7 @@
       <c r="D43" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="51" t="s">
@@ -10726,7 +12008,7 @@
       <c r="D44" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F44" s="51" t="s">
@@ -10752,7 +12034,7 @@
       <c r="D45" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F45" s="51" t="s">
@@ -10778,7 +12060,7 @@
       <c r="D46" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="113" t="s">
+      <c r="E46" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F46" s="51" t="s">
@@ -10804,7 +12086,7 @@
       <c r="D47" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="51" t="s">
@@ -10830,7 +12112,7 @@
       <c r="D48" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="113" t="s">
+      <c r="E48" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F48" s="51" t="s">
@@ -10856,7 +12138,7 @@
       <c r="D49" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F49" s="51" t="s">
@@ -10882,7 +12164,7 @@
       <c r="D50" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F50" s="51" t="s">
@@ -10908,7 +12190,7 @@
       <c r="D51" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="113" t="s">
+      <c r="E51" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="51" t="s">
@@ -10934,7 +12216,7 @@
       <c r="D52" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F52" s="51" t="s">
@@ -10960,7 +12242,7 @@
       <c r="D53" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F53" s="51" t="s">
@@ -10986,7 +12268,7 @@
       <c r="D54" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="113" t="s">
+      <c r="E54" s="112" t="s">
         <v>673</v>
       </c>
       <c r="F54" s="46" t="s">
@@ -11053,7 +12335,7 @@
       <c r="I59" s="35"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="115" t="s">
         <v>192</v>
       </c>
       <c r="C60" s="35"/>
@@ -11749,28 +13031,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11784,10 +13066,10 @@
       <c r="D11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="112" t="s">
         <v>674</v>
       </c>
       <c r="G11" s="51" t="s">
@@ -11804,16 +13086,16 @@
       <c r="B12" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="112" t="s">
         <v>677</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -11836,7 +13118,7 @@
       <c r="D13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="112" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -11996,7 +13278,7 @@
       <c r="D19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="51" t="s">
@@ -12022,7 +13304,7 @@
       <c r="D20" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F20" s="51" t="s">
@@ -12048,7 +13330,7 @@
       <c r="D21" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F21" s="51" t="s">
@@ -12074,7 +13356,7 @@
       <c r="D22" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="51" t="s">
@@ -12101,7 +13383,7 @@
       <c r="D23" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="51" t="s">
@@ -12128,7 +13410,7 @@
       <c r="D24" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F24" s="51" t="s">
@@ -12154,7 +13436,7 @@
       <c r="D25" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F25" s="51" t="s">
@@ -12181,7 +13463,7 @@
       <c r="D26" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="51" t="s">
@@ -12208,7 +13490,7 @@
       <c r="D27" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="51" t="s">
@@ -12234,7 +13516,7 @@
       <c r="D28" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="51" t="s">
@@ -12260,7 +13542,7 @@
       <c r="D29" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F29" s="51" t="s">
@@ -12286,7 +13568,7 @@
       <c r="D30" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="51" t="s">
@@ -12312,7 +13594,7 @@
       <c r="D31" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F31" s="51" t="s">
@@ -12338,7 +13620,7 @@
       <c r="D32" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F32" s="51" t="s">
@@ -12364,7 +13646,7 @@
       <c r="D33" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="51" t="s">
@@ -12390,7 +13672,7 @@
       <c r="D34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F34" s="51" t="s">
@@ -12416,7 +13698,7 @@
       <c r="D35" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F35" s="51" t="s">
@@ -12442,7 +13724,7 @@
       <c r="D36" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F36" s="51" t="s">
@@ -12468,7 +13750,7 @@
       <c r="D37" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F37" s="51" t="s">
@@ -12494,7 +13776,7 @@
       <c r="D38" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="51" t="s">
@@ -12520,7 +13802,7 @@
       <c r="D39" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="51" t="s">
@@ -12546,7 +13828,7 @@
       <c r="D40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F40" s="51" t="s">
@@ -12572,7 +13854,7 @@
       <c r="D41" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F41" s="51" t="s">
@@ -12598,7 +13880,7 @@
       <c r="D42" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F42" s="51" t="s">
@@ -12624,7 +13906,7 @@
       <c r="D43" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="51" t="s">
@@ -12650,7 +13932,7 @@
       <c r="D44" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F44" s="51" t="s">
@@ -12676,7 +13958,7 @@
       <c r="D45" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F45" s="51" t="s">
@@ -12702,7 +13984,7 @@
       <c r="D46" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="113" t="s">
+      <c r="E46" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F46" s="51" t="s">
@@ -12728,7 +14010,7 @@
       <c r="D47" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="51" t="s">
@@ -12754,7 +14036,7 @@
       <c r="D48" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="113" t="s">
+      <c r="E48" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F48" s="51" t="s">
@@ -12780,7 +14062,7 @@
       <c r="D49" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F49" s="51" t="s">
@@ -12806,7 +14088,7 @@
       <c r="D50" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F50" s="51" t="s">
@@ -12832,7 +14114,7 @@
       <c r="D51" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="113" t="s">
+      <c r="E51" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="51" t="s">
@@ -12858,7 +14140,7 @@
       <c r="D52" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F52" s="51" t="s">
@@ -12884,7 +14166,7 @@
       <c r="D53" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F53" s="51" t="s">
@@ -12961,7 +14243,7 @@
       <c r="I59" s="35"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="115" t="s">
         <v>192</v>
       </c>
       <c r="C60" s="35"/>
@@ -13657,28 +14939,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>49</v>
       </c>
     </row>
@@ -13692,10 +14974,10 @@
       <c r="D11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="112" t="s">
         <v>674</v>
       </c>
       <c r="G11" s="51" t="s">
@@ -13712,16 +14994,16 @@
       <c r="B12" s="63" t="s">
         <v>501</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="112" t="s">
         <v>677</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -13744,7 +15026,7 @@
       <c r="D13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="112" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -13904,7 +15186,7 @@
       <c r="D19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="51" t="s">
@@ -13930,7 +15212,7 @@
       <c r="D20" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F20" s="51" t="s">
@@ -13956,7 +15238,7 @@
       <c r="D21" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F21" s="51" t="s">
@@ -13982,7 +15264,7 @@
       <c r="D22" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="51" t="s">
@@ -14009,7 +15291,7 @@
       <c r="D23" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="51" t="s">
@@ -14036,7 +15318,7 @@
       <c r="D24" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F24" s="51" t="s">
@@ -14062,7 +15344,7 @@
       <c r="D25" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F25" s="51" t="s">
@@ -14089,7 +15371,7 @@
       <c r="D26" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="51" t="s">
@@ -14116,7 +15398,7 @@
       <c r="D27" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="51" t="s">
@@ -14142,7 +15424,7 @@
       <c r="D28" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="51" t="s">
@@ -14168,7 +15450,7 @@
       <c r="D29" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F29" s="51" t="s">
@@ -14194,7 +15476,7 @@
       <c r="D30" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="51" t="s">
@@ -14220,7 +15502,7 @@
       <c r="D31" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F31" s="51" t="s">
@@ -14246,7 +15528,7 @@
       <c r="D32" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F32" s="51" t="s">
@@ -14272,7 +15554,7 @@
       <c r="D33" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="51" t="s">
@@ -14298,7 +15580,7 @@
       <c r="D34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F34" s="51" t="s">
@@ -14324,7 +15606,7 @@
       <c r="D35" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F35" s="51" t="s">
@@ -14350,7 +15632,7 @@
       <c r="D36" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F36" s="51" t="s">
@@ -14376,7 +15658,7 @@
       <c r="D37" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F37" s="51" t="s">
@@ -14402,7 +15684,7 @@
       <c r="D38" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="51" t="s">
@@ -14428,7 +15710,7 @@
       <c r="D39" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="51" t="s">
@@ -14454,7 +15736,7 @@
       <c r="D40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F40" s="51" t="s">
@@ -14480,7 +15762,7 @@
       <c r="D41" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F41" s="51" t="s">
@@ -14506,7 +15788,7 @@
       <c r="D42" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F42" s="51" t="s">
@@ -14532,7 +15814,7 @@
       <c r="D43" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="51" t="s">
@@ -14558,7 +15840,7 @@
       <c r="D44" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F44" s="51" t="s">
@@ -14584,7 +15866,7 @@
       <c r="D45" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F45" s="51" t="s">
@@ -14610,7 +15892,7 @@
       <c r="D46" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="113" t="s">
+      <c r="E46" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F46" s="51" t="s">
@@ -14636,7 +15918,7 @@
       <c r="D47" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="51" t="s">
@@ -14662,7 +15944,7 @@
       <c r="D48" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="113" t="s">
+      <c r="E48" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F48" s="51" t="s">
@@ -14688,7 +15970,7 @@
       <c r="D49" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F49" s="51" t="s">
@@ -14714,7 +15996,7 @@
       <c r="D50" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F50" s="51" t="s">
@@ -14740,7 +16022,7 @@
       <c r="D51" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="113" t="s">
+      <c r="E51" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="51" t="s">
@@ -14766,7 +16048,7 @@
       <c r="D52" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F52" s="51" t="s">
@@ -14792,7 +16074,7 @@
       <c r="D53" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F53" s="51" t="s">
@@ -14869,7 +16151,7 @@
       <c r="I59" s="35"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="115" t="s">
         <v>192</v>
       </c>
       <c r="C60" s="35"/>
@@ -15565,28 +16847,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15600,10 +16882,10 @@
       <c r="D11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="112" t="s">
         <v>674</v>
       </c>
       <c r="G11" s="51" t="s">
@@ -15620,16 +16902,16 @@
       <c r="B12" s="63" t="s">
         <v>544</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="112" t="s">
         <v>677</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -15652,7 +16934,7 @@
       <c r="D13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="112" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -15812,7 +17094,7 @@
       <c r="D19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="51" t="s">
@@ -15838,7 +17120,7 @@
       <c r="D20" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F20" s="51" t="s">
@@ -15864,7 +17146,7 @@
       <c r="D21" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F21" s="51" t="s">
@@ -15890,7 +17172,7 @@
       <c r="D22" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="51" t="s">
@@ -15917,7 +17199,7 @@
       <c r="D23" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="51" t="s">
@@ -15944,7 +17226,7 @@
       <c r="D24" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F24" s="51" t="s">
@@ -15970,7 +17252,7 @@
       <c r="D25" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F25" s="51" t="s">
@@ -15997,7 +17279,7 @@
       <c r="D26" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="51" t="s">
@@ -16024,7 +17306,7 @@
       <c r="D27" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="51" t="s">
@@ -16050,7 +17332,7 @@
       <c r="D28" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="51" t="s">
@@ -16076,7 +17358,7 @@
       <c r="D29" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F29" s="51" t="s">
@@ -16102,7 +17384,7 @@
       <c r="D30" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="51" t="s">
@@ -16128,7 +17410,7 @@
       <c r="D31" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F31" s="51" t="s">
@@ -16154,7 +17436,7 @@
       <c r="D32" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F32" s="51" t="s">
@@ -16180,7 +17462,7 @@
       <c r="D33" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="51" t="s">
@@ -16206,7 +17488,7 @@
       <c r="D34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F34" s="51" t="s">
@@ -16232,7 +17514,7 @@
       <c r="D35" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F35" s="51" t="s">
@@ -16258,7 +17540,7 @@
       <c r="D36" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F36" s="51" t="s">
@@ -16284,7 +17566,7 @@
       <c r="D37" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F37" s="51" t="s">
@@ -16310,7 +17592,7 @@
       <c r="D38" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="51" t="s">
@@ -16336,7 +17618,7 @@
       <c r="D39" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="51" t="s">
@@ -16362,7 +17644,7 @@
       <c r="D40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F40" s="51" t="s">
@@ -16388,7 +17670,7 @@
       <c r="D41" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F41" s="51" t="s">
@@ -16414,7 +17696,7 @@
       <c r="D42" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F42" s="51" t="s">
@@ -16440,7 +17722,7 @@
       <c r="D43" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="51" t="s">
@@ -16466,7 +17748,7 @@
       <c r="D44" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F44" s="51" t="s">
@@ -16492,7 +17774,7 @@
       <c r="D45" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F45" s="51" t="s">
@@ -16518,7 +17800,7 @@
       <c r="D46" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="113" t="s">
+      <c r="E46" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F46" s="51" t="s">
@@ -16544,7 +17826,7 @@
       <c r="D47" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="51" t="s">
@@ -16570,7 +17852,7 @@
       <c r="D48" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="113" t="s">
+      <c r="E48" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F48" s="51" t="s">
@@ -16596,7 +17878,7 @@
       <c r="D49" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F49" s="51" t="s">
@@ -16622,7 +17904,7 @@
       <c r="D50" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F50" s="51" t="s">
@@ -16648,7 +17930,7 @@
       <c r="D51" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="113" t="s">
+      <c r="E51" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="51" t="s">
@@ -16674,7 +17956,7 @@
       <c r="D52" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F52" s="51" t="s">
@@ -16700,7 +17982,7 @@
       <c r="D53" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F53" s="51" t="s">
@@ -16777,7 +18059,7 @@
       <c r="I59" s="35"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="115" t="s">
         <v>192</v>
       </c>
       <c r="C60" s="35"/>
@@ -17473,28 +18755,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17508,10 +18790,10 @@
       <c r="D11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="112" t="s">
         <v>674</v>
       </c>
       <c r="G11" s="51" t="s">
@@ -17528,16 +18810,16 @@
       <c r="B12" s="63" t="s">
         <v>587</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="112" t="s">
         <v>677</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -17560,7 +18842,7 @@
       <c r="D13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="112" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -17720,7 +19002,7 @@
       <c r="D19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="51" t="s">
@@ -17746,7 +19028,7 @@
       <c r="D20" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F20" s="51" t="s">
@@ -17772,7 +19054,7 @@
       <c r="D21" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F21" s="51" t="s">
@@ -17798,7 +19080,7 @@
       <c r="D22" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="51" t="s">
@@ -17825,7 +19107,7 @@
       <c r="D23" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="51" t="s">
@@ -17852,7 +19134,7 @@
       <c r="D24" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F24" s="51" t="s">
@@ -17878,7 +19160,7 @@
       <c r="D25" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F25" s="51" t="s">
@@ -17905,7 +19187,7 @@
       <c r="D26" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="51" t="s">
@@ -17932,7 +19214,7 @@
       <c r="D27" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="51" t="s">
@@ -17958,7 +19240,7 @@
       <c r="D28" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="51" t="s">
@@ -17984,7 +19266,7 @@
       <c r="D29" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F29" s="51" t="s">
@@ -18010,7 +19292,7 @@
       <c r="D30" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="51" t="s">
@@ -18036,7 +19318,7 @@
       <c r="D31" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F31" s="51" t="s">
@@ -18062,7 +19344,7 @@
       <c r="D32" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F32" s="51" t="s">
@@ -18088,7 +19370,7 @@
       <c r="D33" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="51" t="s">
@@ -18114,7 +19396,7 @@
       <c r="D34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F34" s="51" t="s">
@@ -18140,7 +19422,7 @@
       <c r="D35" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F35" s="51" t="s">
@@ -18166,7 +19448,7 @@
       <c r="D36" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F36" s="51" t="s">
@@ -18192,7 +19474,7 @@
       <c r="D37" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F37" s="51" t="s">
@@ -18218,7 +19500,7 @@
       <c r="D38" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="51" t="s">
@@ -18244,7 +19526,7 @@
       <c r="D39" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="51" t="s">
@@ -18270,7 +19552,7 @@
       <c r="D40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F40" s="51" t="s">
@@ -18296,7 +19578,7 @@
       <c r="D41" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F41" s="51" t="s">
@@ -18322,7 +19604,7 @@
       <c r="D42" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F42" s="51" t="s">
@@ -18348,7 +19630,7 @@
       <c r="D43" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="51" t="s">
@@ -18374,7 +19656,7 @@
       <c r="D44" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F44" s="51" t="s">
@@ -18400,7 +19682,7 @@
       <c r="D45" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F45" s="51" t="s">
@@ -18426,7 +19708,7 @@
       <c r="D46" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="113" t="s">
+      <c r="E46" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F46" s="51" t="s">
@@ -18452,7 +19734,7 @@
       <c r="D47" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="51" t="s">
@@ -18478,7 +19760,7 @@
       <c r="D48" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="113" t="s">
+      <c r="E48" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F48" s="51" t="s">
@@ -18504,7 +19786,7 @@
       <c r="D49" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F49" s="51" t="s">
@@ -18530,7 +19812,7 @@
       <c r="D50" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F50" s="51" t="s">
@@ -18556,7 +19838,7 @@
       <c r="D51" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="113" t="s">
+      <c r="E51" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="51" t="s">
@@ -18582,7 +19864,7 @@
       <c r="D52" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F52" s="51" t="s">
@@ -18608,7 +19890,7 @@
       <c r="D53" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F53" s="51" t="s">
@@ -18685,7 +19967,7 @@
       <c r="I59" s="35"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="115" t="s">
         <v>192</v>
       </c>
       <c r="C60" s="35"/>
@@ -18757,7 +20039,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -19381,28 +20663,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19416,10 +20698,10 @@
       <c r="D11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="112" t="s">
         <v>674</v>
       </c>
       <c r="G11" s="51" t="s">
@@ -19436,16 +20718,16 @@
       <c r="B12" s="63" t="s">
         <v>630</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="112" t="s">
         <v>677</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -19468,7 +20750,7 @@
       <c r="D13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="112" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -19628,7 +20910,7 @@
       <c r="D19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="51" t="s">
@@ -19654,7 +20936,7 @@
       <c r="D20" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F20" s="51" t="s">
@@ -19680,7 +20962,7 @@
       <c r="D21" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F21" s="51" t="s">
@@ -19706,7 +20988,7 @@
       <c r="D22" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="51" t="s">
@@ -19733,7 +21015,7 @@
       <c r="D23" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="51" t="s">
@@ -19760,7 +21042,7 @@
       <c r="D24" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F24" s="51" t="s">
@@ -19786,7 +21068,7 @@
       <c r="D25" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F25" s="51" t="s">
@@ -19813,7 +21095,7 @@
       <c r="D26" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="51" t="s">
@@ -19840,7 +21122,7 @@
       <c r="D27" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="51" t="s">
@@ -19866,7 +21148,7 @@
       <c r="D28" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="51" t="s">
@@ -19892,7 +21174,7 @@
       <c r="D29" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F29" s="51" t="s">
@@ -19918,7 +21200,7 @@
       <c r="D30" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="51" t="s">
@@ -19944,7 +21226,7 @@
       <c r="D31" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F31" s="51" t="s">
@@ -19970,7 +21252,7 @@
       <c r="D32" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F32" s="51" t="s">
@@ -19996,7 +21278,7 @@
       <c r="D33" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="51" t="s">
@@ -20022,7 +21304,7 @@
       <c r="D34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F34" s="51" t="s">
@@ -20048,7 +21330,7 @@
       <c r="D35" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F35" s="51" t="s">
@@ -20074,7 +21356,7 @@
       <c r="D36" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F36" s="51" t="s">
@@ -20100,7 +21382,7 @@
       <c r="D37" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F37" s="51" t="s">
@@ -20126,7 +21408,7 @@
       <c r="D38" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="51" t="s">
@@ -20152,7 +21434,7 @@
       <c r="D39" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="51" t="s">
@@ -20178,7 +21460,7 @@
       <c r="D40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F40" s="51" t="s">
@@ -20204,7 +21486,7 @@
       <c r="D41" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F41" s="51" t="s">
@@ -20230,7 +21512,7 @@
       <c r="D42" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F42" s="51" t="s">
@@ -20256,7 +21538,7 @@
       <c r="D43" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="51" t="s">
@@ -20282,7 +21564,7 @@
       <c r="D44" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F44" s="51" t="s">
@@ -20308,7 +21590,7 @@
       <c r="D45" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F45" s="51" t="s">
@@ -20334,7 +21616,7 @@
       <c r="D46" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="113" t="s">
+      <c r="E46" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F46" s="51" t="s">
@@ -20360,7 +21642,7 @@
       <c r="D47" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="51" t="s">
@@ -20386,7 +21668,7 @@
       <c r="D48" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="113" t="s">
+      <c r="E48" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F48" s="51" t="s">
@@ -20412,7 +21694,7 @@
       <c r="D49" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F49" s="51" t="s">
@@ -20438,7 +21720,7 @@
       <c r="D50" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F50" s="51" t="s">
@@ -20464,7 +21746,7 @@
       <c r="D51" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="113" t="s">
+      <c r="E51" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="51" t="s">
@@ -20490,7 +21772,7 @@
       <c r="D52" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F52" s="51" t="s">
@@ -20516,7 +21798,7 @@
       <c r="D53" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F53" s="51" t="s">
@@ -20593,7 +21875,7 @@
       <c r="I59" s="35"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="115" t="s">
         <v>192</v>
       </c>
       <c r="C60" s="35"/>
@@ -20658,6 +21940,1838 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I61"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.6640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="27" customWidth="1"/>
+    <col min="10" max="256" width="8.88671875" style="27"/>
+    <col min="257" max="257" width="3.109375" style="27" customWidth="1"/>
+    <col min="258" max="258" width="9.77734375" style="27" customWidth="1"/>
+    <col min="259" max="259" width="40.109375" style="27" customWidth="1"/>
+    <col min="260" max="260" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="21.6640625" style="27" customWidth="1"/>
+    <col min="263" max="263" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.109375" style="27" customWidth="1"/>
+    <col min="265" max="265" width="11.6640625" style="27" customWidth="1"/>
+    <col min="266" max="512" width="8.88671875" style="27"/>
+    <col min="513" max="513" width="3.109375" style="27" customWidth="1"/>
+    <col min="514" max="514" width="9.77734375" style="27" customWidth="1"/>
+    <col min="515" max="515" width="40.109375" style="27" customWidth="1"/>
+    <col min="516" max="516" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="517" max="518" width="21.6640625" style="27" customWidth="1"/>
+    <col min="519" max="519" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="10.109375" style="27" customWidth="1"/>
+    <col min="521" max="521" width="11.6640625" style="27" customWidth="1"/>
+    <col min="522" max="768" width="8.88671875" style="27"/>
+    <col min="769" max="769" width="3.109375" style="27" customWidth="1"/>
+    <col min="770" max="770" width="9.77734375" style="27" customWidth="1"/>
+    <col min="771" max="771" width="40.109375" style="27" customWidth="1"/>
+    <col min="772" max="772" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="773" max="774" width="21.6640625" style="27" customWidth="1"/>
+    <col min="775" max="775" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="10.109375" style="27" customWidth="1"/>
+    <col min="777" max="777" width="11.6640625" style="27" customWidth="1"/>
+    <col min="778" max="1024" width="8.88671875" style="27"/>
+    <col min="1025" max="1025" width="3.109375" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="9.77734375" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="40.109375" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1030" width="21.6640625" style="27" customWidth="1"/>
+    <col min="1031" max="1031" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="10.109375" style="27" customWidth="1"/>
+    <col min="1033" max="1033" width="11.6640625" style="27" customWidth="1"/>
+    <col min="1034" max="1280" width="8.88671875" style="27"/>
+    <col min="1281" max="1281" width="3.109375" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="9.77734375" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="40.109375" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1286" width="21.6640625" style="27" customWidth="1"/>
+    <col min="1287" max="1287" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="10.109375" style="27" customWidth="1"/>
+    <col min="1289" max="1289" width="11.6640625" style="27" customWidth="1"/>
+    <col min="1290" max="1536" width="8.88671875" style="27"/>
+    <col min="1537" max="1537" width="3.109375" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="9.77734375" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="40.109375" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1542" width="21.6640625" style="27" customWidth="1"/>
+    <col min="1543" max="1543" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="10.109375" style="27" customWidth="1"/>
+    <col min="1545" max="1545" width="11.6640625" style="27" customWidth="1"/>
+    <col min="1546" max="1792" width="8.88671875" style="27"/>
+    <col min="1793" max="1793" width="3.109375" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="9.77734375" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="40.109375" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1798" width="21.6640625" style="27" customWidth="1"/>
+    <col min="1799" max="1799" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="10.109375" style="27" customWidth="1"/>
+    <col min="1801" max="1801" width="11.6640625" style="27" customWidth="1"/>
+    <col min="1802" max="2048" width="8.88671875" style="27"/>
+    <col min="2049" max="2049" width="3.109375" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="9.77734375" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="40.109375" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2054" width="21.6640625" style="27" customWidth="1"/>
+    <col min="2055" max="2055" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="10.109375" style="27" customWidth="1"/>
+    <col min="2057" max="2057" width="11.6640625" style="27" customWidth="1"/>
+    <col min="2058" max="2304" width="8.88671875" style="27"/>
+    <col min="2305" max="2305" width="3.109375" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="9.77734375" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="40.109375" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2310" width="21.6640625" style="27" customWidth="1"/>
+    <col min="2311" max="2311" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="10.109375" style="27" customWidth="1"/>
+    <col min="2313" max="2313" width="11.6640625" style="27" customWidth="1"/>
+    <col min="2314" max="2560" width="8.88671875" style="27"/>
+    <col min="2561" max="2561" width="3.109375" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="9.77734375" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="40.109375" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2566" width="21.6640625" style="27" customWidth="1"/>
+    <col min="2567" max="2567" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="10.109375" style="27" customWidth="1"/>
+    <col min="2569" max="2569" width="11.6640625" style="27" customWidth="1"/>
+    <col min="2570" max="2816" width="8.88671875" style="27"/>
+    <col min="2817" max="2817" width="3.109375" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="9.77734375" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="40.109375" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2822" width="21.6640625" style="27" customWidth="1"/>
+    <col min="2823" max="2823" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="10.109375" style="27" customWidth="1"/>
+    <col min="2825" max="2825" width="11.6640625" style="27" customWidth="1"/>
+    <col min="2826" max="3072" width="8.88671875" style="27"/>
+    <col min="3073" max="3073" width="3.109375" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="9.77734375" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="40.109375" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3078" width="21.6640625" style="27" customWidth="1"/>
+    <col min="3079" max="3079" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="10.109375" style="27" customWidth="1"/>
+    <col min="3081" max="3081" width="11.6640625" style="27" customWidth="1"/>
+    <col min="3082" max="3328" width="8.88671875" style="27"/>
+    <col min="3329" max="3329" width="3.109375" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="9.77734375" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="40.109375" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3334" width="21.6640625" style="27" customWidth="1"/>
+    <col min="3335" max="3335" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="10.109375" style="27" customWidth="1"/>
+    <col min="3337" max="3337" width="11.6640625" style="27" customWidth="1"/>
+    <col min="3338" max="3584" width="8.88671875" style="27"/>
+    <col min="3585" max="3585" width="3.109375" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="9.77734375" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="40.109375" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3590" width="21.6640625" style="27" customWidth="1"/>
+    <col min="3591" max="3591" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="10.109375" style="27" customWidth="1"/>
+    <col min="3593" max="3593" width="11.6640625" style="27" customWidth="1"/>
+    <col min="3594" max="3840" width="8.88671875" style="27"/>
+    <col min="3841" max="3841" width="3.109375" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="9.77734375" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="40.109375" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3846" width="21.6640625" style="27" customWidth="1"/>
+    <col min="3847" max="3847" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="10.109375" style="27" customWidth="1"/>
+    <col min="3849" max="3849" width="11.6640625" style="27" customWidth="1"/>
+    <col min="3850" max="4096" width="8.88671875" style="27"/>
+    <col min="4097" max="4097" width="3.109375" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="9.77734375" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="40.109375" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4102" width="21.6640625" style="27" customWidth="1"/>
+    <col min="4103" max="4103" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="10.109375" style="27" customWidth="1"/>
+    <col min="4105" max="4105" width="11.6640625" style="27" customWidth="1"/>
+    <col min="4106" max="4352" width="8.88671875" style="27"/>
+    <col min="4353" max="4353" width="3.109375" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="9.77734375" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="40.109375" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4358" width="21.6640625" style="27" customWidth="1"/>
+    <col min="4359" max="4359" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="10.109375" style="27" customWidth="1"/>
+    <col min="4361" max="4361" width="11.6640625" style="27" customWidth="1"/>
+    <col min="4362" max="4608" width="8.88671875" style="27"/>
+    <col min="4609" max="4609" width="3.109375" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="9.77734375" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="40.109375" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4614" width="21.6640625" style="27" customWidth="1"/>
+    <col min="4615" max="4615" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="10.109375" style="27" customWidth="1"/>
+    <col min="4617" max="4617" width="11.6640625" style="27" customWidth="1"/>
+    <col min="4618" max="4864" width="8.88671875" style="27"/>
+    <col min="4865" max="4865" width="3.109375" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="9.77734375" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="40.109375" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4870" width="21.6640625" style="27" customWidth="1"/>
+    <col min="4871" max="4871" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="10.109375" style="27" customWidth="1"/>
+    <col min="4873" max="4873" width="11.6640625" style="27" customWidth="1"/>
+    <col min="4874" max="5120" width="8.88671875" style="27"/>
+    <col min="5121" max="5121" width="3.109375" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="9.77734375" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="40.109375" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5126" width="21.6640625" style="27" customWidth="1"/>
+    <col min="5127" max="5127" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="10.109375" style="27" customWidth="1"/>
+    <col min="5129" max="5129" width="11.6640625" style="27" customWidth="1"/>
+    <col min="5130" max="5376" width="8.88671875" style="27"/>
+    <col min="5377" max="5377" width="3.109375" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="9.77734375" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="40.109375" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5382" width="21.6640625" style="27" customWidth="1"/>
+    <col min="5383" max="5383" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="10.109375" style="27" customWidth="1"/>
+    <col min="5385" max="5385" width="11.6640625" style="27" customWidth="1"/>
+    <col min="5386" max="5632" width="8.88671875" style="27"/>
+    <col min="5633" max="5633" width="3.109375" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="9.77734375" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="40.109375" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5638" width="21.6640625" style="27" customWidth="1"/>
+    <col min="5639" max="5639" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="10.109375" style="27" customWidth="1"/>
+    <col min="5641" max="5641" width="11.6640625" style="27" customWidth="1"/>
+    <col min="5642" max="5888" width="8.88671875" style="27"/>
+    <col min="5889" max="5889" width="3.109375" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="9.77734375" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="40.109375" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5894" width="21.6640625" style="27" customWidth="1"/>
+    <col min="5895" max="5895" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="10.109375" style="27" customWidth="1"/>
+    <col min="5897" max="5897" width="11.6640625" style="27" customWidth="1"/>
+    <col min="5898" max="6144" width="8.88671875" style="27"/>
+    <col min="6145" max="6145" width="3.109375" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="9.77734375" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="40.109375" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6150" width="21.6640625" style="27" customWidth="1"/>
+    <col min="6151" max="6151" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="10.109375" style="27" customWidth="1"/>
+    <col min="6153" max="6153" width="11.6640625" style="27" customWidth="1"/>
+    <col min="6154" max="6400" width="8.88671875" style="27"/>
+    <col min="6401" max="6401" width="3.109375" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="9.77734375" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="40.109375" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6406" width="21.6640625" style="27" customWidth="1"/>
+    <col min="6407" max="6407" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="10.109375" style="27" customWidth="1"/>
+    <col min="6409" max="6409" width="11.6640625" style="27" customWidth="1"/>
+    <col min="6410" max="6656" width="8.88671875" style="27"/>
+    <col min="6657" max="6657" width="3.109375" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="9.77734375" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="40.109375" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6662" width="21.6640625" style="27" customWidth="1"/>
+    <col min="6663" max="6663" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="10.109375" style="27" customWidth="1"/>
+    <col min="6665" max="6665" width="11.6640625" style="27" customWidth="1"/>
+    <col min="6666" max="6912" width="8.88671875" style="27"/>
+    <col min="6913" max="6913" width="3.109375" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="9.77734375" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="40.109375" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6918" width="21.6640625" style="27" customWidth="1"/>
+    <col min="6919" max="6919" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="10.109375" style="27" customWidth="1"/>
+    <col min="6921" max="6921" width="11.6640625" style="27" customWidth="1"/>
+    <col min="6922" max="7168" width="8.88671875" style="27"/>
+    <col min="7169" max="7169" width="3.109375" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="9.77734375" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="40.109375" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7174" width="21.6640625" style="27" customWidth="1"/>
+    <col min="7175" max="7175" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="10.109375" style="27" customWidth="1"/>
+    <col min="7177" max="7177" width="11.6640625" style="27" customWidth="1"/>
+    <col min="7178" max="7424" width="8.88671875" style="27"/>
+    <col min="7425" max="7425" width="3.109375" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="9.77734375" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="40.109375" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7430" width="21.6640625" style="27" customWidth="1"/>
+    <col min="7431" max="7431" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="10.109375" style="27" customWidth="1"/>
+    <col min="7433" max="7433" width="11.6640625" style="27" customWidth="1"/>
+    <col min="7434" max="7680" width="8.88671875" style="27"/>
+    <col min="7681" max="7681" width="3.109375" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="9.77734375" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="40.109375" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7686" width="21.6640625" style="27" customWidth="1"/>
+    <col min="7687" max="7687" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="10.109375" style="27" customWidth="1"/>
+    <col min="7689" max="7689" width="11.6640625" style="27" customWidth="1"/>
+    <col min="7690" max="7936" width="8.88671875" style="27"/>
+    <col min="7937" max="7937" width="3.109375" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="9.77734375" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="40.109375" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7942" width="21.6640625" style="27" customWidth="1"/>
+    <col min="7943" max="7943" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="10.109375" style="27" customWidth="1"/>
+    <col min="7945" max="7945" width="11.6640625" style="27" customWidth="1"/>
+    <col min="7946" max="8192" width="8.88671875" style="27"/>
+    <col min="8193" max="8193" width="3.109375" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="9.77734375" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="40.109375" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8198" width="21.6640625" style="27" customWidth="1"/>
+    <col min="8199" max="8199" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="10.109375" style="27" customWidth="1"/>
+    <col min="8201" max="8201" width="11.6640625" style="27" customWidth="1"/>
+    <col min="8202" max="8448" width="8.88671875" style="27"/>
+    <col min="8449" max="8449" width="3.109375" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="9.77734375" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="40.109375" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8454" width="21.6640625" style="27" customWidth="1"/>
+    <col min="8455" max="8455" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="10.109375" style="27" customWidth="1"/>
+    <col min="8457" max="8457" width="11.6640625" style="27" customWidth="1"/>
+    <col min="8458" max="8704" width="8.88671875" style="27"/>
+    <col min="8705" max="8705" width="3.109375" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="9.77734375" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="40.109375" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8710" width="21.6640625" style="27" customWidth="1"/>
+    <col min="8711" max="8711" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="10.109375" style="27" customWidth="1"/>
+    <col min="8713" max="8713" width="11.6640625" style="27" customWidth="1"/>
+    <col min="8714" max="8960" width="8.88671875" style="27"/>
+    <col min="8961" max="8961" width="3.109375" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="9.77734375" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="40.109375" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8966" width="21.6640625" style="27" customWidth="1"/>
+    <col min="8967" max="8967" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="10.109375" style="27" customWidth="1"/>
+    <col min="8969" max="8969" width="11.6640625" style="27" customWidth="1"/>
+    <col min="8970" max="9216" width="8.88671875" style="27"/>
+    <col min="9217" max="9217" width="3.109375" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="9.77734375" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="40.109375" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9222" width="21.6640625" style="27" customWidth="1"/>
+    <col min="9223" max="9223" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="10.109375" style="27" customWidth="1"/>
+    <col min="9225" max="9225" width="11.6640625" style="27" customWidth="1"/>
+    <col min="9226" max="9472" width="8.88671875" style="27"/>
+    <col min="9473" max="9473" width="3.109375" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="9.77734375" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="40.109375" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9478" width="21.6640625" style="27" customWidth="1"/>
+    <col min="9479" max="9479" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="10.109375" style="27" customWidth="1"/>
+    <col min="9481" max="9481" width="11.6640625" style="27" customWidth="1"/>
+    <col min="9482" max="9728" width="8.88671875" style="27"/>
+    <col min="9729" max="9729" width="3.109375" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="9.77734375" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="40.109375" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9734" width="21.6640625" style="27" customWidth="1"/>
+    <col min="9735" max="9735" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="10.109375" style="27" customWidth="1"/>
+    <col min="9737" max="9737" width="11.6640625" style="27" customWidth="1"/>
+    <col min="9738" max="9984" width="8.88671875" style="27"/>
+    <col min="9985" max="9985" width="3.109375" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="9.77734375" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="40.109375" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9990" width="21.6640625" style="27" customWidth="1"/>
+    <col min="9991" max="9991" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="10.109375" style="27" customWidth="1"/>
+    <col min="9993" max="9993" width="11.6640625" style="27" customWidth="1"/>
+    <col min="9994" max="10240" width="8.88671875" style="27"/>
+    <col min="10241" max="10241" width="3.109375" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="9.77734375" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="40.109375" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10246" width="21.6640625" style="27" customWidth="1"/>
+    <col min="10247" max="10247" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="10.109375" style="27" customWidth="1"/>
+    <col min="10249" max="10249" width="11.6640625" style="27" customWidth="1"/>
+    <col min="10250" max="10496" width="8.88671875" style="27"/>
+    <col min="10497" max="10497" width="3.109375" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="9.77734375" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="40.109375" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10502" width="21.6640625" style="27" customWidth="1"/>
+    <col min="10503" max="10503" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="10.109375" style="27" customWidth="1"/>
+    <col min="10505" max="10505" width="11.6640625" style="27" customWidth="1"/>
+    <col min="10506" max="10752" width="8.88671875" style="27"/>
+    <col min="10753" max="10753" width="3.109375" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="9.77734375" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="40.109375" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10758" width="21.6640625" style="27" customWidth="1"/>
+    <col min="10759" max="10759" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="10.109375" style="27" customWidth="1"/>
+    <col min="10761" max="10761" width="11.6640625" style="27" customWidth="1"/>
+    <col min="10762" max="11008" width="8.88671875" style="27"/>
+    <col min="11009" max="11009" width="3.109375" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="9.77734375" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="40.109375" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11014" width="21.6640625" style="27" customWidth="1"/>
+    <col min="11015" max="11015" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="10.109375" style="27" customWidth="1"/>
+    <col min="11017" max="11017" width="11.6640625" style="27" customWidth="1"/>
+    <col min="11018" max="11264" width="8.88671875" style="27"/>
+    <col min="11265" max="11265" width="3.109375" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="9.77734375" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="40.109375" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11270" width="21.6640625" style="27" customWidth="1"/>
+    <col min="11271" max="11271" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="10.109375" style="27" customWidth="1"/>
+    <col min="11273" max="11273" width="11.6640625" style="27" customWidth="1"/>
+    <col min="11274" max="11520" width="8.88671875" style="27"/>
+    <col min="11521" max="11521" width="3.109375" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="9.77734375" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="40.109375" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11526" width="21.6640625" style="27" customWidth="1"/>
+    <col min="11527" max="11527" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="10.109375" style="27" customWidth="1"/>
+    <col min="11529" max="11529" width="11.6640625" style="27" customWidth="1"/>
+    <col min="11530" max="11776" width="8.88671875" style="27"/>
+    <col min="11777" max="11777" width="3.109375" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="9.77734375" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="40.109375" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11782" width="21.6640625" style="27" customWidth="1"/>
+    <col min="11783" max="11783" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="10.109375" style="27" customWidth="1"/>
+    <col min="11785" max="11785" width="11.6640625" style="27" customWidth="1"/>
+    <col min="11786" max="12032" width="8.88671875" style="27"/>
+    <col min="12033" max="12033" width="3.109375" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="9.77734375" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="40.109375" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12038" width="21.6640625" style="27" customWidth="1"/>
+    <col min="12039" max="12039" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="10.109375" style="27" customWidth="1"/>
+    <col min="12041" max="12041" width="11.6640625" style="27" customWidth="1"/>
+    <col min="12042" max="12288" width="8.88671875" style="27"/>
+    <col min="12289" max="12289" width="3.109375" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="9.77734375" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="40.109375" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12294" width="21.6640625" style="27" customWidth="1"/>
+    <col min="12295" max="12295" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="10.109375" style="27" customWidth="1"/>
+    <col min="12297" max="12297" width="11.6640625" style="27" customWidth="1"/>
+    <col min="12298" max="12544" width="8.88671875" style="27"/>
+    <col min="12545" max="12545" width="3.109375" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="9.77734375" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="40.109375" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12550" width="21.6640625" style="27" customWidth="1"/>
+    <col min="12551" max="12551" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="10.109375" style="27" customWidth="1"/>
+    <col min="12553" max="12553" width="11.6640625" style="27" customWidth="1"/>
+    <col min="12554" max="12800" width="8.88671875" style="27"/>
+    <col min="12801" max="12801" width="3.109375" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="9.77734375" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="40.109375" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12806" width="21.6640625" style="27" customWidth="1"/>
+    <col min="12807" max="12807" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="10.109375" style="27" customWidth="1"/>
+    <col min="12809" max="12809" width="11.6640625" style="27" customWidth="1"/>
+    <col min="12810" max="13056" width="8.88671875" style="27"/>
+    <col min="13057" max="13057" width="3.109375" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="9.77734375" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="40.109375" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13062" width="21.6640625" style="27" customWidth="1"/>
+    <col min="13063" max="13063" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="10.109375" style="27" customWidth="1"/>
+    <col min="13065" max="13065" width="11.6640625" style="27" customWidth="1"/>
+    <col min="13066" max="13312" width="8.88671875" style="27"/>
+    <col min="13313" max="13313" width="3.109375" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="9.77734375" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="40.109375" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13318" width="21.6640625" style="27" customWidth="1"/>
+    <col min="13319" max="13319" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="10.109375" style="27" customWidth="1"/>
+    <col min="13321" max="13321" width="11.6640625" style="27" customWidth="1"/>
+    <col min="13322" max="13568" width="8.88671875" style="27"/>
+    <col min="13569" max="13569" width="3.109375" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="9.77734375" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="40.109375" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13574" width="21.6640625" style="27" customWidth="1"/>
+    <col min="13575" max="13575" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="10.109375" style="27" customWidth="1"/>
+    <col min="13577" max="13577" width="11.6640625" style="27" customWidth="1"/>
+    <col min="13578" max="13824" width="8.88671875" style="27"/>
+    <col min="13825" max="13825" width="3.109375" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="9.77734375" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="40.109375" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13830" width="21.6640625" style="27" customWidth="1"/>
+    <col min="13831" max="13831" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="10.109375" style="27" customWidth="1"/>
+    <col min="13833" max="13833" width="11.6640625" style="27" customWidth="1"/>
+    <col min="13834" max="14080" width="8.88671875" style="27"/>
+    <col min="14081" max="14081" width="3.109375" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="9.77734375" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="40.109375" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14086" width="21.6640625" style="27" customWidth="1"/>
+    <col min="14087" max="14087" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="10.109375" style="27" customWidth="1"/>
+    <col min="14089" max="14089" width="11.6640625" style="27" customWidth="1"/>
+    <col min="14090" max="14336" width="8.88671875" style="27"/>
+    <col min="14337" max="14337" width="3.109375" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="9.77734375" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="40.109375" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14342" width="21.6640625" style="27" customWidth="1"/>
+    <col min="14343" max="14343" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="10.109375" style="27" customWidth="1"/>
+    <col min="14345" max="14345" width="11.6640625" style="27" customWidth="1"/>
+    <col min="14346" max="14592" width="8.88671875" style="27"/>
+    <col min="14593" max="14593" width="3.109375" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="9.77734375" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="40.109375" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14598" width="21.6640625" style="27" customWidth="1"/>
+    <col min="14599" max="14599" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="10.109375" style="27" customWidth="1"/>
+    <col min="14601" max="14601" width="11.6640625" style="27" customWidth="1"/>
+    <col min="14602" max="14848" width="8.88671875" style="27"/>
+    <col min="14849" max="14849" width="3.109375" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="9.77734375" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="40.109375" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14854" width="21.6640625" style="27" customWidth="1"/>
+    <col min="14855" max="14855" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="10.109375" style="27" customWidth="1"/>
+    <col min="14857" max="14857" width="11.6640625" style="27" customWidth="1"/>
+    <col min="14858" max="15104" width="8.88671875" style="27"/>
+    <col min="15105" max="15105" width="3.109375" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="9.77734375" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="40.109375" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15110" width="21.6640625" style="27" customWidth="1"/>
+    <col min="15111" max="15111" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="10.109375" style="27" customWidth="1"/>
+    <col min="15113" max="15113" width="11.6640625" style="27" customWidth="1"/>
+    <col min="15114" max="15360" width="8.88671875" style="27"/>
+    <col min="15361" max="15361" width="3.109375" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="9.77734375" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="40.109375" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15366" width="21.6640625" style="27" customWidth="1"/>
+    <col min="15367" max="15367" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="10.109375" style="27" customWidth="1"/>
+    <col min="15369" max="15369" width="11.6640625" style="27" customWidth="1"/>
+    <col min="15370" max="15616" width="8.88671875" style="27"/>
+    <col min="15617" max="15617" width="3.109375" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="9.77734375" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="40.109375" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15622" width="21.6640625" style="27" customWidth="1"/>
+    <col min="15623" max="15623" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="10.109375" style="27" customWidth="1"/>
+    <col min="15625" max="15625" width="11.6640625" style="27" customWidth="1"/>
+    <col min="15626" max="15872" width="8.88671875" style="27"/>
+    <col min="15873" max="15873" width="3.109375" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="9.77734375" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="40.109375" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15878" width="21.6640625" style="27" customWidth="1"/>
+    <col min="15879" max="15879" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="10.109375" style="27" customWidth="1"/>
+    <col min="15881" max="15881" width="11.6640625" style="27" customWidth="1"/>
+    <col min="15882" max="16128" width="8.88671875" style="27"/>
+    <col min="16129" max="16129" width="3.109375" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="9.77734375" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="40.109375" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16134" width="21.6640625" style="27" customWidth="1"/>
+    <col min="16135" max="16135" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="10.109375" style="27" customWidth="1"/>
+    <col min="16137" max="16137" width="11.6640625" style="27" customWidth="1"/>
+    <col min="16138" max="16384" width="8.88671875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="37" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="102" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B11" s="63" t="s">
+        <v>778</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>738</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="112" t="s">
+        <v>821</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I11" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="38.4" x14ac:dyDescent="0.2">
+      <c r="B12" s="63" t="s">
+        <v>779</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>742</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="112" t="s">
+        <v>736</v>
+      </c>
+      <c r="F12" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I12" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B13" s="63" t="s">
+        <v>780</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>741</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="112" t="s">
+        <v>821</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I13" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="38.4" x14ac:dyDescent="0.2">
+      <c r="B14" s="63" t="s">
+        <v>781</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>743</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="112" t="s">
+        <v>736</v>
+      </c>
+      <c r="F14" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I14" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B15" s="63" t="s">
+        <v>782</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>744</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="112" t="s">
+        <v>821</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I15" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="38.4" x14ac:dyDescent="0.2">
+      <c r="B16" s="63" t="s">
+        <v>783</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>745</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="112" t="s">
+        <v>736</v>
+      </c>
+      <c r="F16" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I16" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B17" s="63" t="s">
+        <v>784</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>746</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="112" t="s">
+        <v>821</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I17" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="38.4" x14ac:dyDescent="0.2">
+      <c r="B18" s="63" t="s">
+        <v>785</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>747</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="112" t="s">
+        <v>736</v>
+      </c>
+      <c r="F18" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I18" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B19" s="63" t="s">
+        <v>786</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>748</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="112" t="s">
+        <v>821</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I19" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="38.4" x14ac:dyDescent="0.2">
+      <c r="B20" s="63" t="s">
+        <v>787</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>749</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="112" t="s">
+        <v>736</v>
+      </c>
+      <c r="F20" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I20" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B21" s="63" t="s">
+        <v>788</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>750</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="112" t="s">
+        <v>821</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I21" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="38.4" x14ac:dyDescent="0.2">
+      <c r="B22" s="63" t="s">
+        <v>789</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>751</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="112" t="s">
+        <v>736</v>
+      </c>
+      <c r="F22" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I22" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B23" s="63" t="s">
+        <v>790</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>752</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="112" t="s">
+        <v>821</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I23" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="38.4" x14ac:dyDescent="0.2">
+      <c r="B24" s="63" t="s">
+        <v>791</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>753</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="112" t="s">
+        <v>736</v>
+      </c>
+      <c r="F24" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I24" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B25" s="63" t="s">
+        <v>792</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>754</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="112" t="s">
+        <v>821</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I25" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="38.4" x14ac:dyDescent="0.2">
+      <c r="B26" s="63" t="s">
+        <v>793</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="112" t="s">
+        <v>736</v>
+      </c>
+      <c r="F26" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I26" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B27" s="63" t="s">
+        <v>794</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>756</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="112" t="s">
+        <v>821</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I27" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="38.4" x14ac:dyDescent="0.2">
+      <c r="B28" s="63" t="s">
+        <v>795</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>757</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="112" t="s">
+        <v>736</v>
+      </c>
+      <c r="F28" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I28" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B29" s="63" t="s">
+        <v>796</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>758</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="112" t="s">
+        <v>821</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I29" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="38.4" x14ac:dyDescent="0.2">
+      <c r="B30" s="63" t="s">
+        <v>797</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>759</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="112" t="s">
+        <v>736</v>
+      </c>
+      <c r="F30" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I30" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B31" s="63" t="s">
+        <v>798</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>760</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="112" t="s">
+        <v>821</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I31" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="38.4" x14ac:dyDescent="0.2">
+      <c r="B32" s="63" t="s">
+        <v>799</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="112" t="s">
+        <v>736</v>
+      </c>
+      <c r="F32" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I32" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B33" s="63" t="s">
+        <v>800</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>762</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="112" t="s">
+        <v>821</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I33" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="38.4" x14ac:dyDescent="0.2">
+      <c r="B34" s="63" t="s">
+        <v>801</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>763</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="112" t="s">
+        <v>736</v>
+      </c>
+      <c r="F34" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H34" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I34" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B35" s="63" t="s">
+        <v>802</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>764</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="112" t="s">
+        <v>821</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H35" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I35" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="38.4" x14ac:dyDescent="0.2">
+      <c r="B36" s="63" t="s">
+        <v>803</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>765</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="112" t="s">
+        <v>736</v>
+      </c>
+      <c r="F36" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H36" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I36" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B37" s="63" t="s">
+        <v>804</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>766</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="112" t="s">
+        <v>821</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H37" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I37" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="38.4" x14ac:dyDescent="0.2">
+      <c r="B38" s="63" t="s">
+        <v>805</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="112" t="s">
+        <v>736</v>
+      </c>
+      <c r="F38" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="G38" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H38" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I38" s="76">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="B39" s="63" t="s">
+        <v>826</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>768</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="112" t="s">
+        <v>740</v>
+      </c>
+      <c r="F39" s="112" t="s">
+        <v>740</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I39" s="76">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A40" s="38"/>
+      <c r="B40" s="63" t="s">
+        <v>806</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>827</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="112" t="s">
+        <v>818</v>
+      </c>
+      <c r="F40" s="112" t="s">
+        <v>818</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I40" s="76">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A41" s="38"/>
+      <c r="B41" s="63" t="s">
+        <v>807</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>769</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="112" t="s">
+        <v>740</v>
+      </c>
+      <c r="F41" s="112" t="s">
+        <v>740</v>
+      </c>
+      <c r="G41" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H41" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I41" s="76">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A42" s="38"/>
+      <c r="B42" s="63" t="s">
+        <v>808</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="F42" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="G42" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I42" s="76">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A43" s="38"/>
+      <c r="B43" s="63" t="s">
+        <v>809</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>771</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="F43" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="G43" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I43" s="76">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="B44" s="63" t="s">
+        <v>810</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="F44" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="G44" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I44" s="76">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="B45" s="63" t="s">
+        <v>811</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>773</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="F45" s="125" t="s">
+        <v>824</v>
+      </c>
+      <c r="G45" s="51" t="s">
+        <v>828</v>
+      </c>
+      <c r="H45" s="136" t="s">
+        <v>829</v>
+      </c>
+      <c r="I45" s="137" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="B46" s="63" t="s">
+        <v>812</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>774</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="F46" s="125" t="s">
+        <v>825</v>
+      </c>
+      <c r="G46" s="51" t="s">
+        <v>828</v>
+      </c>
+      <c r="H46" s="136" t="s">
+        <v>829</v>
+      </c>
+      <c r="I46" s="137" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="76.8" x14ac:dyDescent="0.2">
+      <c r="B47" s="63" t="s">
+        <v>813</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>739</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="F47" s="125" t="s">
+        <v>825</v>
+      </c>
+      <c r="G47" s="51" t="s">
+        <v>828</v>
+      </c>
+      <c r="H47" s="136" t="s">
+        <v>829</v>
+      </c>
+      <c r="I47" s="137" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="B48" s="63" t="s">
+        <v>814</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>775</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="112" t="s">
+        <v>740</v>
+      </c>
+      <c r="F48" s="112" t="s">
+        <v>740</v>
+      </c>
+      <c r="G48" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H48" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I48" s="76">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A49" s="38"/>
+      <c r="B49" s="63" t="s">
+        <v>815</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="F49" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="G49" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H49" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I49" s="76">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A50" s="38"/>
+      <c r="B50" s="63" t="s">
+        <v>816</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>777</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="112" t="s">
+        <v>740</v>
+      </c>
+      <c r="F50" s="112" t="s">
+        <v>740</v>
+      </c>
+      <c r="G50" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="H50" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I50" s="76">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="71"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="75"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+    </row>
+    <row r="54" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+    </row>
+    <row r="55" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A55" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="115" t="s">
+        <v>820</v>
+      </c>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G44 G48:G51">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G45:G47">
+      <formula1>"OK,NG,-"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
@@ -21073,38 +24187,38 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="120" t="s">
+      <c r="H5" s="128" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="123"/>
-      <c r="C6" s="105" t="s">
+      <c r="B6" s="131"/>
+      <c r="C6" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="121"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="129"/>
     </row>
     <row r="7" spans="1:8" ht="38.4" x14ac:dyDescent="0.2">
       <c r="B7" s="65" t="s">
@@ -21303,7 +24417,414 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="15" customWidth="1"/>
+    <col min="5" max="257" width="9" style="15"/>
+    <col min="258" max="258" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="15.6640625" style="15" customWidth="1"/>
+    <col min="260" max="260" width="7.6640625" style="15" customWidth="1"/>
+    <col min="261" max="513" width="9" style="15"/>
+    <col min="514" max="514" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="15.6640625" style="15" customWidth="1"/>
+    <col min="516" max="516" width="7.6640625" style="15" customWidth="1"/>
+    <col min="517" max="769" width="9" style="15"/>
+    <col min="770" max="770" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="15.6640625" style="15" customWidth="1"/>
+    <col min="772" max="772" width="7.6640625" style="15" customWidth="1"/>
+    <col min="773" max="1025" width="9" style="15"/>
+    <col min="1026" max="1026" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="15.6640625" style="15" customWidth="1"/>
+    <col min="1028" max="1028" width="7.6640625" style="15" customWidth="1"/>
+    <col min="1029" max="1281" width="9" style="15"/>
+    <col min="1282" max="1282" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="15.6640625" style="15" customWidth="1"/>
+    <col min="1284" max="1284" width="7.6640625" style="15" customWidth="1"/>
+    <col min="1285" max="1537" width="9" style="15"/>
+    <col min="1538" max="1538" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="15.6640625" style="15" customWidth="1"/>
+    <col min="1540" max="1540" width="7.6640625" style="15" customWidth="1"/>
+    <col min="1541" max="1793" width="9" style="15"/>
+    <col min="1794" max="1794" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="15.6640625" style="15" customWidth="1"/>
+    <col min="1796" max="1796" width="7.6640625" style="15" customWidth="1"/>
+    <col min="1797" max="2049" width="9" style="15"/>
+    <col min="2050" max="2050" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="15.6640625" style="15" customWidth="1"/>
+    <col min="2052" max="2052" width="7.6640625" style="15" customWidth="1"/>
+    <col min="2053" max="2305" width="9" style="15"/>
+    <col min="2306" max="2306" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="15.6640625" style="15" customWidth="1"/>
+    <col min="2308" max="2308" width="7.6640625" style="15" customWidth="1"/>
+    <col min="2309" max="2561" width="9" style="15"/>
+    <col min="2562" max="2562" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="15.6640625" style="15" customWidth="1"/>
+    <col min="2564" max="2564" width="7.6640625" style="15" customWidth="1"/>
+    <col min="2565" max="2817" width="9" style="15"/>
+    <col min="2818" max="2818" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="15.6640625" style="15" customWidth="1"/>
+    <col min="2820" max="2820" width="7.6640625" style="15" customWidth="1"/>
+    <col min="2821" max="3073" width="9" style="15"/>
+    <col min="3074" max="3074" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="15.6640625" style="15" customWidth="1"/>
+    <col min="3076" max="3076" width="7.6640625" style="15" customWidth="1"/>
+    <col min="3077" max="3329" width="9" style="15"/>
+    <col min="3330" max="3330" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="15.6640625" style="15" customWidth="1"/>
+    <col min="3332" max="3332" width="7.6640625" style="15" customWidth="1"/>
+    <col min="3333" max="3585" width="9" style="15"/>
+    <col min="3586" max="3586" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="15.6640625" style="15" customWidth="1"/>
+    <col min="3588" max="3588" width="7.6640625" style="15" customWidth="1"/>
+    <col min="3589" max="3841" width="9" style="15"/>
+    <col min="3842" max="3842" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="15.6640625" style="15" customWidth="1"/>
+    <col min="3844" max="3844" width="7.6640625" style="15" customWidth="1"/>
+    <col min="3845" max="4097" width="9" style="15"/>
+    <col min="4098" max="4098" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="15.6640625" style="15" customWidth="1"/>
+    <col min="4100" max="4100" width="7.6640625" style="15" customWidth="1"/>
+    <col min="4101" max="4353" width="9" style="15"/>
+    <col min="4354" max="4354" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="15.6640625" style="15" customWidth="1"/>
+    <col min="4356" max="4356" width="7.6640625" style="15" customWidth="1"/>
+    <col min="4357" max="4609" width="9" style="15"/>
+    <col min="4610" max="4610" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="15.6640625" style="15" customWidth="1"/>
+    <col min="4612" max="4612" width="7.6640625" style="15" customWidth="1"/>
+    <col min="4613" max="4865" width="9" style="15"/>
+    <col min="4866" max="4866" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="15.6640625" style="15" customWidth="1"/>
+    <col min="4868" max="4868" width="7.6640625" style="15" customWidth="1"/>
+    <col min="4869" max="5121" width="9" style="15"/>
+    <col min="5122" max="5122" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="15.6640625" style="15" customWidth="1"/>
+    <col min="5124" max="5124" width="7.6640625" style="15" customWidth="1"/>
+    <col min="5125" max="5377" width="9" style="15"/>
+    <col min="5378" max="5378" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="15.6640625" style="15" customWidth="1"/>
+    <col min="5380" max="5380" width="7.6640625" style="15" customWidth="1"/>
+    <col min="5381" max="5633" width="9" style="15"/>
+    <col min="5634" max="5634" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="15.6640625" style="15" customWidth="1"/>
+    <col min="5636" max="5636" width="7.6640625" style="15" customWidth="1"/>
+    <col min="5637" max="5889" width="9" style="15"/>
+    <col min="5890" max="5890" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="15.6640625" style="15" customWidth="1"/>
+    <col min="5892" max="5892" width="7.6640625" style="15" customWidth="1"/>
+    <col min="5893" max="6145" width="9" style="15"/>
+    <col min="6146" max="6146" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="15.6640625" style="15" customWidth="1"/>
+    <col min="6148" max="6148" width="7.6640625" style="15" customWidth="1"/>
+    <col min="6149" max="6401" width="9" style="15"/>
+    <col min="6402" max="6402" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="15.6640625" style="15" customWidth="1"/>
+    <col min="6404" max="6404" width="7.6640625" style="15" customWidth="1"/>
+    <col min="6405" max="6657" width="9" style="15"/>
+    <col min="6658" max="6658" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="15.6640625" style="15" customWidth="1"/>
+    <col min="6660" max="6660" width="7.6640625" style="15" customWidth="1"/>
+    <col min="6661" max="6913" width="9" style="15"/>
+    <col min="6914" max="6914" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="15.6640625" style="15" customWidth="1"/>
+    <col min="6916" max="6916" width="7.6640625" style="15" customWidth="1"/>
+    <col min="6917" max="7169" width="9" style="15"/>
+    <col min="7170" max="7170" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="15.6640625" style="15" customWidth="1"/>
+    <col min="7172" max="7172" width="7.6640625" style="15" customWidth="1"/>
+    <col min="7173" max="7425" width="9" style="15"/>
+    <col min="7426" max="7426" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="15.6640625" style="15" customWidth="1"/>
+    <col min="7428" max="7428" width="7.6640625" style="15" customWidth="1"/>
+    <col min="7429" max="7681" width="9" style="15"/>
+    <col min="7682" max="7682" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="15.6640625" style="15" customWidth="1"/>
+    <col min="7684" max="7684" width="7.6640625" style="15" customWidth="1"/>
+    <col min="7685" max="7937" width="9" style="15"/>
+    <col min="7938" max="7938" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="15.6640625" style="15" customWidth="1"/>
+    <col min="7940" max="7940" width="7.6640625" style="15" customWidth="1"/>
+    <col min="7941" max="8193" width="9" style="15"/>
+    <col min="8194" max="8194" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="15.6640625" style="15" customWidth="1"/>
+    <col min="8196" max="8196" width="7.6640625" style="15" customWidth="1"/>
+    <col min="8197" max="8449" width="9" style="15"/>
+    <col min="8450" max="8450" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="15.6640625" style="15" customWidth="1"/>
+    <col min="8452" max="8452" width="7.6640625" style="15" customWidth="1"/>
+    <col min="8453" max="8705" width="9" style="15"/>
+    <col min="8706" max="8706" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="15.6640625" style="15" customWidth="1"/>
+    <col min="8708" max="8708" width="7.6640625" style="15" customWidth="1"/>
+    <col min="8709" max="8961" width="9" style="15"/>
+    <col min="8962" max="8962" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="15.6640625" style="15" customWidth="1"/>
+    <col min="8964" max="8964" width="7.6640625" style="15" customWidth="1"/>
+    <col min="8965" max="9217" width="9" style="15"/>
+    <col min="9218" max="9218" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="15.6640625" style="15" customWidth="1"/>
+    <col min="9220" max="9220" width="7.6640625" style="15" customWidth="1"/>
+    <col min="9221" max="9473" width="9" style="15"/>
+    <col min="9474" max="9474" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="15.6640625" style="15" customWidth="1"/>
+    <col min="9476" max="9476" width="7.6640625" style="15" customWidth="1"/>
+    <col min="9477" max="9729" width="9" style="15"/>
+    <col min="9730" max="9730" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="15.6640625" style="15" customWidth="1"/>
+    <col min="9732" max="9732" width="7.6640625" style="15" customWidth="1"/>
+    <col min="9733" max="9985" width="9" style="15"/>
+    <col min="9986" max="9986" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="15.6640625" style="15" customWidth="1"/>
+    <col min="9988" max="9988" width="7.6640625" style="15" customWidth="1"/>
+    <col min="9989" max="10241" width="9" style="15"/>
+    <col min="10242" max="10242" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="15.6640625" style="15" customWidth="1"/>
+    <col min="10244" max="10244" width="7.6640625" style="15" customWidth="1"/>
+    <col min="10245" max="10497" width="9" style="15"/>
+    <col min="10498" max="10498" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="15.6640625" style="15" customWidth="1"/>
+    <col min="10500" max="10500" width="7.6640625" style="15" customWidth="1"/>
+    <col min="10501" max="10753" width="9" style="15"/>
+    <col min="10754" max="10754" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="15.6640625" style="15" customWidth="1"/>
+    <col min="10756" max="10756" width="7.6640625" style="15" customWidth="1"/>
+    <col min="10757" max="11009" width="9" style="15"/>
+    <col min="11010" max="11010" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="15.6640625" style="15" customWidth="1"/>
+    <col min="11012" max="11012" width="7.6640625" style="15" customWidth="1"/>
+    <col min="11013" max="11265" width="9" style="15"/>
+    <col min="11266" max="11266" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="15.6640625" style="15" customWidth="1"/>
+    <col min="11268" max="11268" width="7.6640625" style="15" customWidth="1"/>
+    <col min="11269" max="11521" width="9" style="15"/>
+    <col min="11522" max="11522" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="15.6640625" style="15" customWidth="1"/>
+    <col min="11524" max="11524" width="7.6640625" style="15" customWidth="1"/>
+    <col min="11525" max="11777" width="9" style="15"/>
+    <col min="11778" max="11778" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="15.6640625" style="15" customWidth="1"/>
+    <col min="11780" max="11780" width="7.6640625" style="15" customWidth="1"/>
+    <col min="11781" max="12033" width="9" style="15"/>
+    <col min="12034" max="12034" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="15.6640625" style="15" customWidth="1"/>
+    <col min="12036" max="12036" width="7.6640625" style="15" customWidth="1"/>
+    <col min="12037" max="12289" width="9" style="15"/>
+    <col min="12290" max="12290" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="15.6640625" style="15" customWidth="1"/>
+    <col min="12292" max="12292" width="7.6640625" style="15" customWidth="1"/>
+    <col min="12293" max="12545" width="9" style="15"/>
+    <col min="12546" max="12546" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="15.6640625" style="15" customWidth="1"/>
+    <col min="12548" max="12548" width="7.6640625" style="15" customWidth="1"/>
+    <col min="12549" max="12801" width="9" style="15"/>
+    <col min="12802" max="12802" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="15.6640625" style="15" customWidth="1"/>
+    <col min="12804" max="12804" width="7.6640625" style="15" customWidth="1"/>
+    <col min="12805" max="13057" width="9" style="15"/>
+    <col min="13058" max="13058" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="15.6640625" style="15" customWidth="1"/>
+    <col min="13060" max="13060" width="7.6640625" style="15" customWidth="1"/>
+    <col min="13061" max="13313" width="9" style="15"/>
+    <col min="13314" max="13314" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="15.6640625" style="15" customWidth="1"/>
+    <col min="13316" max="13316" width="7.6640625" style="15" customWidth="1"/>
+    <col min="13317" max="13569" width="9" style="15"/>
+    <col min="13570" max="13570" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="15.6640625" style="15" customWidth="1"/>
+    <col min="13572" max="13572" width="7.6640625" style="15" customWidth="1"/>
+    <col min="13573" max="13825" width="9" style="15"/>
+    <col min="13826" max="13826" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="15.6640625" style="15" customWidth="1"/>
+    <col min="13828" max="13828" width="7.6640625" style="15" customWidth="1"/>
+    <col min="13829" max="14081" width="9" style="15"/>
+    <col min="14082" max="14082" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="15.6640625" style="15" customWidth="1"/>
+    <col min="14084" max="14084" width="7.6640625" style="15" customWidth="1"/>
+    <col min="14085" max="14337" width="9" style="15"/>
+    <col min="14338" max="14338" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="15.6640625" style="15" customWidth="1"/>
+    <col min="14340" max="14340" width="7.6640625" style="15" customWidth="1"/>
+    <col min="14341" max="14593" width="9" style="15"/>
+    <col min="14594" max="14594" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="15.6640625" style="15" customWidth="1"/>
+    <col min="14596" max="14596" width="7.6640625" style="15" customWidth="1"/>
+    <col min="14597" max="14849" width="9" style="15"/>
+    <col min="14850" max="14850" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="15.6640625" style="15" customWidth="1"/>
+    <col min="14852" max="14852" width="7.6640625" style="15" customWidth="1"/>
+    <col min="14853" max="15105" width="9" style="15"/>
+    <col min="15106" max="15106" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="15.6640625" style="15" customWidth="1"/>
+    <col min="15108" max="15108" width="7.6640625" style="15" customWidth="1"/>
+    <col min="15109" max="15361" width="9" style="15"/>
+    <col min="15362" max="15362" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="15.6640625" style="15" customWidth="1"/>
+    <col min="15364" max="15364" width="7.6640625" style="15" customWidth="1"/>
+    <col min="15365" max="15617" width="9" style="15"/>
+    <col min="15618" max="15618" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="15.6640625" style="15" customWidth="1"/>
+    <col min="15620" max="15620" width="7.6640625" style="15" customWidth="1"/>
+    <col min="15621" max="15873" width="9" style="15"/>
+    <col min="15874" max="15874" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="15.6640625" style="15" customWidth="1"/>
+    <col min="15876" max="15876" width="7.6640625" style="15" customWidth="1"/>
+    <col min="15877" max="16129" width="9" style="15"/>
+    <col min="16130" max="16130" width="9.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="15.6640625" style="15" customWidth="1"/>
+    <col min="16132" max="16132" width="7.6640625" style="15" customWidth="1"/>
+    <col min="16133" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="3.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="97"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="86">
+        <v>44887</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="87"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="86">
+        <v>44965</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="87"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="116">
+        <v>45238</v>
+      </c>
+      <c r="C10" s="117" t="s">
+        <v>727</v>
+      </c>
+      <c r="D10" s="118" t="s">
+        <v>730</v>
+      </c>
+      <c r="E10" s="119" t="s">
+        <v>731</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="87"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.86614173228346458" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter xml:space="preserve">&amp;C&amp;10　
+&amp;R
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
@@ -21793,22 +25314,22 @@
     </row>
     <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="107" t="s">
+      <c r="F7" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="G7" s="107" t="s">
         <v>65</v>
       </c>
     </row>
@@ -21848,22 +25369,22 @@
     </row>
     <row r="14" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="109" t="s">
+      <c r="E14" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="109" t="s">
+      <c r="F14" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="107" t="s">
         <v>65</v>
       </c>
     </row>
@@ -21910,395 +25431,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter xml:space="preserve">&amp;C&amp;10　
 &amp;R&amp;10
-</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="15" customWidth="1"/>
-    <col min="5" max="257" width="9" style="15"/>
-    <col min="258" max="258" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="15.6640625" style="15" customWidth="1"/>
-    <col min="260" max="260" width="7.6640625" style="15" customWidth="1"/>
-    <col min="261" max="513" width="9" style="15"/>
-    <col min="514" max="514" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="15.6640625" style="15" customWidth="1"/>
-    <col min="516" max="516" width="7.6640625" style="15" customWidth="1"/>
-    <col min="517" max="769" width="9" style="15"/>
-    <col min="770" max="770" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="15.6640625" style="15" customWidth="1"/>
-    <col min="772" max="772" width="7.6640625" style="15" customWidth="1"/>
-    <col min="773" max="1025" width="9" style="15"/>
-    <col min="1026" max="1026" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="15.6640625" style="15" customWidth="1"/>
-    <col min="1028" max="1028" width="7.6640625" style="15" customWidth="1"/>
-    <col min="1029" max="1281" width="9" style="15"/>
-    <col min="1282" max="1282" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="15.6640625" style="15" customWidth="1"/>
-    <col min="1284" max="1284" width="7.6640625" style="15" customWidth="1"/>
-    <col min="1285" max="1537" width="9" style="15"/>
-    <col min="1538" max="1538" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="15.6640625" style="15" customWidth="1"/>
-    <col min="1540" max="1540" width="7.6640625" style="15" customWidth="1"/>
-    <col min="1541" max="1793" width="9" style="15"/>
-    <col min="1794" max="1794" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="15.6640625" style="15" customWidth="1"/>
-    <col min="1796" max="1796" width="7.6640625" style="15" customWidth="1"/>
-    <col min="1797" max="2049" width="9" style="15"/>
-    <col min="2050" max="2050" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="15.6640625" style="15" customWidth="1"/>
-    <col min="2052" max="2052" width="7.6640625" style="15" customWidth="1"/>
-    <col min="2053" max="2305" width="9" style="15"/>
-    <col min="2306" max="2306" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="15.6640625" style="15" customWidth="1"/>
-    <col min="2308" max="2308" width="7.6640625" style="15" customWidth="1"/>
-    <col min="2309" max="2561" width="9" style="15"/>
-    <col min="2562" max="2562" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="15.6640625" style="15" customWidth="1"/>
-    <col min="2564" max="2564" width="7.6640625" style="15" customWidth="1"/>
-    <col min="2565" max="2817" width="9" style="15"/>
-    <col min="2818" max="2818" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="15.6640625" style="15" customWidth="1"/>
-    <col min="2820" max="2820" width="7.6640625" style="15" customWidth="1"/>
-    <col min="2821" max="3073" width="9" style="15"/>
-    <col min="3074" max="3074" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="15.6640625" style="15" customWidth="1"/>
-    <col min="3076" max="3076" width="7.6640625" style="15" customWidth="1"/>
-    <col min="3077" max="3329" width="9" style="15"/>
-    <col min="3330" max="3330" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="15.6640625" style="15" customWidth="1"/>
-    <col min="3332" max="3332" width="7.6640625" style="15" customWidth="1"/>
-    <col min="3333" max="3585" width="9" style="15"/>
-    <col min="3586" max="3586" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="15.6640625" style="15" customWidth="1"/>
-    <col min="3588" max="3588" width="7.6640625" style="15" customWidth="1"/>
-    <col min="3589" max="3841" width="9" style="15"/>
-    <col min="3842" max="3842" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="15.6640625" style="15" customWidth="1"/>
-    <col min="3844" max="3844" width="7.6640625" style="15" customWidth="1"/>
-    <col min="3845" max="4097" width="9" style="15"/>
-    <col min="4098" max="4098" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="15.6640625" style="15" customWidth="1"/>
-    <col min="4100" max="4100" width="7.6640625" style="15" customWidth="1"/>
-    <col min="4101" max="4353" width="9" style="15"/>
-    <col min="4354" max="4354" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="15.6640625" style="15" customWidth="1"/>
-    <col min="4356" max="4356" width="7.6640625" style="15" customWidth="1"/>
-    <col min="4357" max="4609" width="9" style="15"/>
-    <col min="4610" max="4610" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="15.6640625" style="15" customWidth="1"/>
-    <col min="4612" max="4612" width="7.6640625" style="15" customWidth="1"/>
-    <col min="4613" max="4865" width="9" style="15"/>
-    <col min="4866" max="4866" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="15.6640625" style="15" customWidth="1"/>
-    <col min="4868" max="4868" width="7.6640625" style="15" customWidth="1"/>
-    <col min="4869" max="5121" width="9" style="15"/>
-    <col min="5122" max="5122" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="15.6640625" style="15" customWidth="1"/>
-    <col min="5124" max="5124" width="7.6640625" style="15" customWidth="1"/>
-    <col min="5125" max="5377" width="9" style="15"/>
-    <col min="5378" max="5378" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="15.6640625" style="15" customWidth="1"/>
-    <col min="5380" max="5380" width="7.6640625" style="15" customWidth="1"/>
-    <col min="5381" max="5633" width="9" style="15"/>
-    <col min="5634" max="5634" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="15.6640625" style="15" customWidth="1"/>
-    <col min="5636" max="5636" width="7.6640625" style="15" customWidth="1"/>
-    <col min="5637" max="5889" width="9" style="15"/>
-    <col min="5890" max="5890" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="15.6640625" style="15" customWidth="1"/>
-    <col min="5892" max="5892" width="7.6640625" style="15" customWidth="1"/>
-    <col min="5893" max="6145" width="9" style="15"/>
-    <col min="6146" max="6146" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="15.6640625" style="15" customWidth="1"/>
-    <col min="6148" max="6148" width="7.6640625" style="15" customWidth="1"/>
-    <col min="6149" max="6401" width="9" style="15"/>
-    <col min="6402" max="6402" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="15.6640625" style="15" customWidth="1"/>
-    <col min="6404" max="6404" width="7.6640625" style="15" customWidth="1"/>
-    <col min="6405" max="6657" width="9" style="15"/>
-    <col min="6658" max="6658" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="15.6640625" style="15" customWidth="1"/>
-    <col min="6660" max="6660" width="7.6640625" style="15" customWidth="1"/>
-    <col min="6661" max="6913" width="9" style="15"/>
-    <col min="6914" max="6914" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="15.6640625" style="15" customWidth="1"/>
-    <col min="6916" max="6916" width="7.6640625" style="15" customWidth="1"/>
-    <col min="6917" max="7169" width="9" style="15"/>
-    <col min="7170" max="7170" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="15.6640625" style="15" customWidth="1"/>
-    <col min="7172" max="7172" width="7.6640625" style="15" customWidth="1"/>
-    <col min="7173" max="7425" width="9" style="15"/>
-    <col min="7426" max="7426" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="15.6640625" style="15" customWidth="1"/>
-    <col min="7428" max="7428" width="7.6640625" style="15" customWidth="1"/>
-    <col min="7429" max="7681" width="9" style="15"/>
-    <col min="7682" max="7682" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="15.6640625" style="15" customWidth="1"/>
-    <col min="7684" max="7684" width="7.6640625" style="15" customWidth="1"/>
-    <col min="7685" max="7937" width="9" style="15"/>
-    <col min="7938" max="7938" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="15.6640625" style="15" customWidth="1"/>
-    <col min="7940" max="7940" width="7.6640625" style="15" customWidth="1"/>
-    <col min="7941" max="8193" width="9" style="15"/>
-    <col min="8194" max="8194" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="15.6640625" style="15" customWidth="1"/>
-    <col min="8196" max="8196" width="7.6640625" style="15" customWidth="1"/>
-    <col min="8197" max="8449" width="9" style="15"/>
-    <col min="8450" max="8450" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="15.6640625" style="15" customWidth="1"/>
-    <col min="8452" max="8452" width="7.6640625" style="15" customWidth="1"/>
-    <col min="8453" max="8705" width="9" style="15"/>
-    <col min="8706" max="8706" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="15.6640625" style="15" customWidth="1"/>
-    <col min="8708" max="8708" width="7.6640625" style="15" customWidth="1"/>
-    <col min="8709" max="8961" width="9" style="15"/>
-    <col min="8962" max="8962" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="15.6640625" style="15" customWidth="1"/>
-    <col min="8964" max="8964" width="7.6640625" style="15" customWidth="1"/>
-    <col min="8965" max="9217" width="9" style="15"/>
-    <col min="9218" max="9218" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="15.6640625" style="15" customWidth="1"/>
-    <col min="9220" max="9220" width="7.6640625" style="15" customWidth="1"/>
-    <col min="9221" max="9473" width="9" style="15"/>
-    <col min="9474" max="9474" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="15.6640625" style="15" customWidth="1"/>
-    <col min="9476" max="9476" width="7.6640625" style="15" customWidth="1"/>
-    <col min="9477" max="9729" width="9" style="15"/>
-    <col min="9730" max="9730" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="15.6640625" style="15" customWidth="1"/>
-    <col min="9732" max="9732" width="7.6640625" style="15" customWidth="1"/>
-    <col min="9733" max="9985" width="9" style="15"/>
-    <col min="9986" max="9986" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="15.6640625" style="15" customWidth="1"/>
-    <col min="9988" max="9988" width="7.6640625" style="15" customWidth="1"/>
-    <col min="9989" max="10241" width="9" style="15"/>
-    <col min="10242" max="10242" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="15.6640625" style="15" customWidth="1"/>
-    <col min="10244" max="10244" width="7.6640625" style="15" customWidth="1"/>
-    <col min="10245" max="10497" width="9" style="15"/>
-    <col min="10498" max="10498" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="15.6640625" style="15" customWidth="1"/>
-    <col min="10500" max="10500" width="7.6640625" style="15" customWidth="1"/>
-    <col min="10501" max="10753" width="9" style="15"/>
-    <col min="10754" max="10754" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="15.6640625" style="15" customWidth="1"/>
-    <col min="10756" max="10756" width="7.6640625" style="15" customWidth="1"/>
-    <col min="10757" max="11009" width="9" style="15"/>
-    <col min="11010" max="11010" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="15.6640625" style="15" customWidth="1"/>
-    <col min="11012" max="11012" width="7.6640625" style="15" customWidth="1"/>
-    <col min="11013" max="11265" width="9" style="15"/>
-    <col min="11266" max="11266" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="15.6640625" style="15" customWidth="1"/>
-    <col min="11268" max="11268" width="7.6640625" style="15" customWidth="1"/>
-    <col min="11269" max="11521" width="9" style="15"/>
-    <col min="11522" max="11522" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="15.6640625" style="15" customWidth="1"/>
-    <col min="11524" max="11524" width="7.6640625" style="15" customWidth="1"/>
-    <col min="11525" max="11777" width="9" style="15"/>
-    <col min="11778" max="11778" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="15.6640625" style="15" customWidth="1"/>
-    <col min="11780" max="11780" width="7.6640625" style="15" customWidth="1"/>
-    <col min="11781" max="12033" width="9" style="15"/>
-    <col min="12034" max="12034" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="15.6640625" style="15" customWidth="1"/>
-    <col min="12036" max="12036" width="7.6640625" style="15" customWidth="1"/>
-    <col min="12037" max="12289" width="9" style="15"/>
-    <col min="12290" max="12290" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="15.6640625" style="15" customWidth="1"/>
-    <col min="12292" max="12292" width="7.6640625" style="15" customWidth="1"/>
-    <col min="12293" max="12545" width="9" style="15"/>
-    <col min="12546" max="12546" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="15.6640625" style="15" customWidth="1"/>
-    <col min="12548" max="12548" width="7.6640625" style="15" customWidth="1"/>
-    <col min="12549" max="12801" width="9" style="15"/>
-    <col min="12802" max="12802" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="15.6640625" style="15" customWidth="1"/>
-    <col min="12804" max="12804" width="7.6640625" style="15" customWidth="1"/>
-    <col min="12805" max="13057" width="9" style="15"/>
-    <col min="13058" max="13058" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="15.6640625" style="15" customWidth="1"/>
-    <col min="13060" max="13060" width="7.6640625" style="15" customWidth="1"/>
-    <col min="13061" max="13313" width="9" style="15"/>
-    <col min="13314" max="13314" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="15.6640625" style="15" customWidth="1"/>
-    <col min="13316" max="13316" width="7.6640625" style="15" customWidth="1"/>
-    <col min="13317" max="13569" width="9" style="15"/>
-    <col min="13570" max="13570" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="15.6640625" style="15" customWidth="1"/>
-    <col min="13572" max="13572" width="7.6640625" style="15" customWidth="1"/>
-    <col min="13573" max="13825" width="9" style="15"/>
-    <col min="13826" max="13826" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="15.6640625" style="15" customWidth="1"/>
-    <col min="13828" max="13828" width="7.6640625" style="15" customWidth="1"/>
-    <col min="13829" max="14081" width="9" style="15"/>
-    <col min="14082" max="14082" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="15.6640625" style="15" customWidth="1"/>
-    <col min="14084" max="14084" width="7.6640625" style="15" customWidth="1"/>
-    <col min="14085" max="14337" width="9" style="15"/>
-    <col min="14338" max="14338" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="15.6640625" style="15" customWidth="1"/>
-    <col min="14340" max="14340" width="7.6640625" style="15" customWidth="1"/>
-    <col min="14341" max="14593" width="9" style="15"/>
-    <col min="14594" max="14594" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="15.6640625" style="15" customWidth="1"/>
-    <col min="14596" max="14596" width="7.6640625" style="15" customWidth="1"/>
-    <col min="14597" max="14849" width="9" style="15"/>
-    <col min="14850" max="14850" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="15.6640625" style="15" customWidth="1"/>
-    <col min="14852" max="14852" width="7.6640625" style="15" customWidth="1"/>
-    <col min="14853" max="15105" width="9" style="15"/>
-    <col min="15106" max="15106" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="15.6640625" style="15" customWidth="1"/>
-    <col min="15108" max="15108" width="7.6640625" style="15" customWidth="1"/>
-    <col min="15109" max="15361" width="9" style="15"/>
-    <col min="15362" max="15362" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="15.6640625" style="15" customWidth="1"/>
-    <col min="15364" max="15364" width="7.6640625" style="15" customWidth="1"/>
-    <col min="15365" max="15617" width="9" style="15"/>
-    <col min="15618" max="15618" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="15.6640625" style="15" customWidth="1"/>
-    <col min="15620" max="15620" width="7.6640625" style="15" customWidth="1"/>
-    <col min="15621" max="15873" width="9" style="15"/>
-    <col min="15874" max="15874" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="15.6640625" style="15" customWidth="1"/>
-    <col min="15876" max="15876" width="7.6640625" style="15" customWidth="1"/>
-    <col min="15877" max="16129" width="9" style="15"/>
-    <col min="16130" max="16130" width="9.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="15.6640625" style="15" customWidth="1"/>
-    <col min="16132" max="16132" width="7.6640625" style="15" customWidth="1"/>
-    <col min="16133" max="16384" width="9" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" ht="3.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="98"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="87">
-        <v>44887</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="88"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="87">
-        <v>44965</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>729</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>730</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>731</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="88"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.86614173228346458" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter xml:space="preserve">&amp;C&amp;10　
-&amp;R
 </oddFooter>
   </headerFooter>
 </worksheet>
@@ -22625,11 +25757,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -22688,10 +25823,10 @@
       <c r="A6" s="82"/>
       <c r="B6" s="82"/>
       <c r="C6" s="82"/>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="99" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="82"/>
@@ -22700,7 +25835,7 @@
       <c r="A7" s="82"/>
       <c r="B7" s="82"/>
       <c r="C7" s="82"/>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="114" t="s">
         <v>82</v>
       </c>
       <c r="E7" s="84" t="s">
@@ -22712,7 +25847,7 @@
       <c r="A8" s="82"/>
       <c r="B8" s="82"/>
       <c r="C8" s="82"/>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="114" t="s">
         <v>706</v>
       </c>
       <c r="E8" s="84" t="s">
@@ -22724,7 +25859,7 @@
       <c r="A9" s="82"/>
       <c r="B9" s="82"/>
       <c r="C9" s="82"/>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="114" t="s">
         <v>708</v>
       </c>
       <c r="E9" s="84" t="s">
@@ -22736,7 +25871,7 @@
       <c r="A10" s="82"/>
       <c r="B10" s="82"/>
       <c r="C10" s="82"/>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="114" t="s">
         <v>710</v>
       </c>
       <c r="E10" s="84" t="s">
@@ -22748,7 +25883,7 @@
       <c r="A11" s="82"/>
       <c r="B11" s="82"/>
       <c r="C11" s="82"/>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="114" t="s">
         <v>712</v>
       </c>
       <c r="E11" s="84" t="s">
@@ -22760,7 +25895,7 @@
       <c r="A12" s="82"/>
       <c r="B12" s="82"/>
       <c r="C12" s="82"/>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="114" t="s">
         <v>714</v>
       </c>
       <c r="E12" s="84" t="s">
@@ -22772,7 +25907,7 @@
       <c r="A13" s="82"/>
       <c r="B13" s="82"/>
       <c r="C13" s="82"/>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="114" t="s">
         <v>716</v>
       </c>
       <c r="E13" s="84" t="s">
@@ -22784,7 +25919,7 @@
       <c r="A14" s="82"/>
       <c r="B14" s="82"/>
       <c r="C14" s="82"/>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="114" t="s">
         <v>718</v>
       </c>
       <c r="E14" s="84" t="s">
@@ -22796,7 +25931,7 @@
       <c r="A15" s="82"/>
       <c r="B15" s="82"/>
       <c r="C15" s="82"/>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="114" t="s">
         <v>720</v>
       </c>
       <c r="E15" s="84" t="s">
@@ -22808,7 +25943,7 @@
       <c r="A16" s="82"/>
       <c r="B16" s="82"/>
       <c r="C16" s="82"/>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="114" t="s">
         <v>722</v>
       </c>
       <c r="E16" s="84" t="s">
@@ -22820,7 +25955,7 @@
       <c r="A17" s="82"/>
       <c r="B17" s="82"/>
       <c r="C17" s="82"/>
-      <c r="D17" s="115" t="s">
+      <c r="D17" s="114" t="s">
         <v>724</v>
       </c>
       <c r="E17" s="84" t="s">
@@ -22828,33 +25963,53 @@
       </c>
       <c r="F17" s="82"/>
     </row>
-    <row r="18" spans="1:6" s="83" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
+    <row r="18" spans="1:6" s="83" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="82"/>
       <c r="B18" s="82"/>
       <c r="C18" s="82"/>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="114" t="s">
         <v>726</v>
       </c>
-      <c r="E18" s="86" t="s">
-        <v>727</v>
+      <c r="E18" s="84" t="s">
+        <v>733</v>
       </c>
       <c r="F18" s="82"/>
     </row>
-    <row r="19" spans="1:6" s="83" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="83" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="82"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-    </row>
-    <row r="20" spans="1:6" s="83" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="114" t="s">
+        <v>737</v>
+      </c>
+      <c r="E19" s="124" t="s">
+        <v>817</v>
+      </c>
+      <c r="F19" s="82"/>
+    </row>
+    <row r="20" spans="1:6" s="83" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="85"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="82"/>
+    </row>
+    <row r="21" spans="1:6" s="83" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="A21" s="82"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+    </row>
+    <row r="22" spans="1:6" s="83" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -22871,6 +26026,7 @@
     <hyperlink ref="D16" location="'テスト仕様_テスト結果(テスト・シナリオ10)'!A1" display="シナリオ10"/>
     <hyperlink ref="D17" location="'テスト仕様_テスト結果(テスト・シナリオ11)'!A1" display="シナリオ11"/>
     <hyperlink ref="D18" location="'テスト仕様_テスト結果(テスト・シナリオ12)'!A1" display="シナリオ12"/>
+    <hyperlink ref="D19" location="'テスト仕様_テスト結果(テスト・シナリオ13)'!Print_Area" display="シナリオ13"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
@@ -22885,10 +26041,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:I44"/>
+  <sheetPr codeName="Sheet5">
+    <tabColor rgb="FFFF99CC"/>
+  </sheetPr>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23185,18 +26345,18 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="110" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="113" t="s">
         <v>91</v>
       </c>
     </row>
@@ -23354,8 +26514,20 @@
       <c r="C43" s="35"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="35"/>
+      <c r="B44" s="122" t="s">
+        <v>734</v>
+      </c>
       <c r="C44" s="35"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="123" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="35"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -23373,7 +26545,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -23997,28 +27169,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>49</v>
       </c>
     </row>
@@ -24032,10 +27204,10 @@
       <c r="D11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="112" t="s">
         <v>674</v>
       </c>
       <c r="G11" s="51" t="s">
@@ -24052,16 +27224,16 @@
       <c r="B12" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>678</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="112" t="s">
         <v>677</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -24084,7 +27256,7 @@
       <c r="D13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="112" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -24244,7 +27416,7 @@
       <c r="D19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="112" t="s">
         <v>680</v>
       </c>
       <c r="F19" s="51" t="s">
@@ -24270,7 +27442,7 @@
       <c r="D20" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F20" s="51" t="s">
@@ -24296,7 +27468,7 @@
       <c r="D21" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F21" s="51" t="s">
@@ -24322,7 +27494,7 @@
       <c r="D22" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="51" t="s">
@@ -24349,7 +27521,7 @@
       <c r="D23" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="51" t="s">
@@ -24376,7 +27548,7 @@
       <c r="D24" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F24" s="51" t="s">
@@ -24402,7 +27574,7 @@
       <c r="D25" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F25" s="51" t="s">
@@ -24429,7 +27601,7 @@
       <c r="D26" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="51" t="s">
@@ -24456,7 +27628,7 @@
       <c r="D27" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="51" t="s">
@@ -24482,7 +27654,7 @@
       <c r="D28" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="51" t="s">
@@ -24508,7 +27680,7 @@
       <c r="D29" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F29" s="51" t="s">
@@ -24534,7 +27706,7 @@
       <c r="D30" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="51" t="s">
@@ -24560,7 +27732,7 @@
       <c r="D31" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F31" s="51" t="s">
@@ -24586,7 +27758,7 @@
       <c r="D32" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F32" s="51" t="s">
@@ -24612,7 +27784,7 @@
       <c r="D33" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="51" t="s">
@@ -24638,7 +27810,7 @@
       <c r="D34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F34" s="51" t="s">
@@ -24664,7 +27836,7 @@
       <c r="D35" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F35" s="51" t="s">
@@ -24690,7 +27862,7 @@
       <c r="D36" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F36" s="51" t="s">
@@ -24716,7 +27888,7 @@
       <c r="D37" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F37" s="51" t="s">
@@ -24742,7 +27914,7 @@
       <c r="D38" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="51" t="s">
@@ -24768,7 +27940,7 @@
       <c r="D39" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="51" t="s">
@@ -24794,7 +27966,7 @@
       <c r="D40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F40" s="51" t="s">
@@ -24820,7 +27992,7 @@
       <c r="D41" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F41" s="51" t="s">
@@ -24846,7 +28018,7 @@
       <c r="D42" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F42" s="51" t="s">
@@ -24872,7 +28044,7 @@
       <c r="D43" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="51" t="s">
@@ -24898,7 +28070,7 @@
       <c r="D44" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F44" s="51" t="s">
@@ -24924,7 +28096,7 @@
       <c r="D45" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F45" s="51" t="s">
@@ -24950,7 +28122,7 @@
       <c r="D46" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="113" t="s">
+      <c r="E46" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F46" s="51" t="s">
@@ -24976,7 +28148,7 @@
       <c r="D47" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="51" t="s">
@@ -25002,7 +28174,7 @@
       <c r="D48" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="113" t="s">
+      <c r="E48" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F48" s="51" t="s">
@@ -25028,7 +28200,7 @@
       <c r="D49" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F49" s="51" t="s">
@@ -25054,7 +28226,7 @@
       <c r="D50" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F50" s="51" t="s">
@@ -25080,7 +28252,7 @@
       <c r="D51" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="113" t="s">
+      <c r="E51" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="51" t="s">
@@ -25106,7 +28278,7 @@
       <c r="D52" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F52" s="51" t="s">
@@ -25132,7 +28304,7 @@
       <c r="D53" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F53" s="51" t="s">
@@ -25158,7 +28330,7 @@
       <c r="D54" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="113" t="s">
+      <c r="E54" s="112" t="s">
         <v>684</v>
       </c>
       <c r="F54" s="46" t="s">
@@ -25225,7 +28397,7 @@
       <c r="I59" s="35"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="115" t="s">
         <v>192</v>
       </c>
       <c r="C60" s="35"/>
@@ -25921,28 +29093,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>49</v>
       </c>
     </row>
@@ -25956,10 +29128,10 @@
       <c r="D11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="112" t="s">
         <v>674</v>
       </c>
       <c r="G11" s="51" t="s">
@@ -25976,16 +29148,16 @@
       <c r="B12" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="112" t="s">
         <v>677</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -26008,7 +29180,7 @@
       <c r="D13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="112" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -26168,7 +29340,7 @@
       <c r="D19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="51" t="s">
@@ -26194,7 +29366,7 @@
       <c r="D20" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F20" s="51" t="s">
@@ -26220,7 +29392,7 @@
       <c r="D21" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F21" s="51" t="s">
@@ -26246,7 +29418,7 @@
       <c r="D22" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="51" t="s">
@@ -26273,7 +29445,7 @@
       <c r="D23" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="51" t="s">
@@ -26300,7 +29472,7 @@
       <c r="D24" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F24" s="51" t="s">
@@ -26326,7 +29498,7 @@
       <c r="D25" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F25" s="51" t="s">
@@ -26353,7 +29525,7 @@
       <c r="D26" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="51" t="s">
@@ -26380,7 +29552,7 @@
       <c r="D27" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="51" t="s">
@@ -26406,7 +29578,7 @@
       <c r="D28" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="51" t="s">
@@ -26432,7 +29604,7 @@
       <c r="D29" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F29" s="51" t="s">
@@ -26458,7 +29630,7 @@
       <c r="D30" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="51" t="s">
@@ -26484,7 +29656,7 @@
       <c r="D31" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F31" s="51" t="s">
@@ -26510,7 +29682,7 @@
       <c r="D32" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F32" s="51" t="s">
@@ -26536,7 +29708,7 @@
       <c r="D33" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="51" t="s">
@@ -26562,7 +29734,7 @@
       <c r="D34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F34" s="51" t="s">
@@ -26588,7 +29760,7 @@
       <c r="D35" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F35" s="51" t="s">
@@ -26614,7 +29786,7 @@
       <c r="D36" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F36" s="51" t="s">
@@ -26640,7 +29812,7 @@
       <c r="D37" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F37" s="51" t="s">
@@ -26666,7 +29838,7 @@
       <c r="D38" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="51" t="s">
@@ -26692,7 +29864,7 @@
       <c r="D39" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="51" t="s">
@@ -26718,7 +29890,7 @@
       <c r="D40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F40" s="51" t="s">
@@ -26744,7 +29916,7 @@
       <c r="D41" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F41" s="51" t="s">
@@ -26770,7 +29942,7 @@
       <c r="D42" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F42" s="51" t="s">
@@ -26796,7 +29968,7 @@
       <c r="D43" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="51" t="s">
@@ -26822,7 +29994,7 @@
       <c r="D44" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F44" s="51" t="s">
@@ -26848,7 +30020,7 @@
       <c r="D45" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F45" s="51" t="s">
@@ -26874,7 +30046,7 @@
       <c r="D46" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="113" t="s">
+      <c r="E46" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F46" s="51" t="s">
@@ -26900,7 +30072,7 @@
       <c r="D47" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="51" t="s">
@@ -26926,7 +30098,7 @@
       <c r="D48" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="113" t="s">
+      <c r="E48" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F48" s="51" t="s">
@@ -26952,7 +30124,7 @@
       <c r="D49" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F49" s="51" t="s">
@@ -26978,7 +30150,7 @@
       <c r="D50" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F50" s="51" t="s">
@@ -27004,7 +30176,7 @@
       <c r="D51" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="113" t="s">
+      <c r="E51" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="51" t="s">
@@ -27030,7 +30202,7 @@
       <c r="D52" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F52" s="51" t="s">
@@ -27056,7 +30228,7 @@
       <c r="D53" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F53" s="51" t="s">
@@ -27133,7 +30305,7 @@
       <c r="I59" s="35"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="115" t="s">
         <v>192</v>
       </c>
       <c r="C60" s="35"/>
@@ -27829,28 +31001,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>49</v>
       </c>
     </row>
@@ -27864,10 +31036,10 @@
       <c r="D11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="112" t="s">
         <v>674</v>
       </c>
       <c r="G11" s="51" t="s">
@@ -27884,16 +31056,16 @@
       <c r="B12" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="112" t="s">
         <v>677</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -27916,7 +31088,7 @@
       <c r="D13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="112" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -28076,7 +31248,7 @@
       <c r="D19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="51" t="s">
@@ -28102,7 +31274,7 @@
       <c r="D20" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F20" s="51" t="s">
@@ -28128,7 +31300,7 @@
       <c r="D21" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F21" s="51" t="s">
@@ -28154,7 +31326,7 @@
       <c r="D22" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="51" t="s">
@@ -28181,7 +31353,7 @@
       <c r="D23" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="51" t="s">
@@ -28208,7 +31380,7 @@
       <c r="D24" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F24" s="51" t="s">
@@ -28234,7 +31406,7 @@
       <c r="D25" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F25" s="51" t="s">
@@ -28261,7 +31433,7 @@
       <c r="D26" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="51" t="s">
@@ -28288,7 +31460,7 @@
       <c r="D27" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="51" t="s">
@@ -28314,7 +31486,7 @@
       <c r="D28" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="51" t="s">
@@ -28340,7 +31512,7 @@
       <c r="D29" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F29" s="51" t="s">
@@ -28366,7 +31538,7 @@
       <c r="D30" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="51" t="s">
@@ -28392,7 +31564,7 @@
       <c r="D31" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F31" s="51" t="s">
@@ -28418,7 +31590,7 @@
       <c r="D32" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F32" s="51" t="s">
@@ -28444,7 +31616,7 @@
       <c r="D33" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="51" t="s">
@@ -28470,7 +31642,7 @@
       <c r="D34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F34" s="51" t="s">
@@ -28496,7 +31668,7 @@
       <c r="D35" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F35" s="51" t="s">
@@ -28522,7 +31694,7 @@
       <c r="D36" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F36" s="51" t="s">
@@ -28548,7 +31720,7 @@
       <c r="D37" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F37" s="51" t="s">
@@ -28574,7 +31746,7 @@
       <c r="D38" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="51" t="s">
@@ -28600,7 +31772,7 @@
       <c r="D39" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="51" t="s">
@@ -28626,7 +31798,7 @@
       <c r="D40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F40" s="51" t="s">
@@ -28652,7 +31824,7 @@
       <c r="D41" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F41" s="51" t="s">
@@ -28678,7 +31850,7 @@
       <c r="D42" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F42" s="51" t="s">
@@ -28704,7 +31876,7 @@
       <c r="D43" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="51" t="s">
@@ -28730,7 +31902,7 @@
       <c r="D44" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F44" s="51" t="s">
@@ -28756,7 +31928,7 @@
       <c r="D45" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F45" s="51" t="s">
@@ -28782,7 +31954,7 @@
       <c r="D46" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="113" t="s">
+      <c r="E46" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F46" s="51" t="s">
@@ -28808,7 +31980,7 @@
       <c r="D47" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="51" t="s">
@@ -28834,7 +32006,7 @@
       <c r="D48" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="113" t="s">
+      <c r="E48" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F48" s="51" t="s">
@@ -28860,7 +32032,7 @@
       <c r="D49" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F49" s="51" t="s">
@@ -28886,7 +32058,7 @@
       <c r="D50" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F50" s="51" t="s">
@@ -28912,7 +32084,7 @@
       <c r="D51" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="113" t="s">
+      <c r="E51" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="51" t="s">
@@ -28938,7 +32110,7 @@
       <c r="D52" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F52" s="51" t="s">
@@ -28964,7 +32136,7 @@
       <c r="D53" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F53" s="51" t="s">
@@ -29041,7 +32213,7 @@
       <c r="I59" s="35"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="115" t="s">
         <v>192</v>
       </c>
       <c r="C60" s="35"/>
@@ -29737,28 +32909,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>49</v>
       </c>
     </row>
@@ -29772,10 +32944,10 @@
       <c r="D11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="112" t="s">
         <v>674</v>
       </c>
       <c r="G11" s="51" t="s">
@@ -29792,16 +32964,16 @@
       <c r="B12" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="112" t="s">
         <v>677</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -29824,7 +32996,7 @@
       <c r="D13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="112" t="s">
         <v>185</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -29984,7 +33156,7 @@
       <c r="D19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="51" t="s">
@@ -30010,7 +33182,7 @@
       <c r="D20" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F20" s="51" t="s">
@@ -30036,7 +33208,7 @@
       <c r="D21" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F21" s="51" t="s">
@@ -30062,7 +33234,7 @@
       <c r="D22" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="51" t="s">
@@ -30089,7 +33261,7 @@
       <c r="D23" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="51" t="s">
@@ -30116,7 +33288,7 @@
       <c r="D24" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F24" s="51" t="s">
@@ -30142,7 +33314,7 @@
       <c r="D25" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F25" s="51" t="s">
@@ -30169,7 +33341,7 @@
       <c r="D26" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="51" t="s">
@@ -30196,7 +33368,7 @@
       <c r="D27" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="51" t="s">
@@ -30222,7 +33394,7 @@
       <c r="D28" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="51" t="s">
@@ -30248,7 +33420,7 @@
       <c r="D29" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F29" s="51" t="s">
@@ -30274,7 +33446,7 @@
       <c r="D30" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="51" t="s">
@@ -30300,7 +33472,7 @@
       <c r="D31" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F31" s="51" t="s">
@@ -30326,7 +33498,7 @@
       <c r="D32" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F32" s="51" t="s">
@@ -30352,7 +33524,7 @@
       <c r="D33" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="51" t="s">
@@ -30378,7 +33550,7 @@
       <c r="D34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F34" s="51" t="s">
@@ -30404,7 +33576,7 @@
       <c r="D35" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F35" s="51" t="s">
@@ -30430,7 +33602,7 @@
       <c r="D36" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F36" s="51" t="s">
@@ -30456,7 +33628,7 @@
       <c r="D37" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F37" s="51" t="s">
@@ -30482,7 +33654,7 @@
       <c r="D38" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="51" t="s">
@@ -30508,7 +33680,7 @@
       <c r="D39" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="51" t="s">
@@ -30534,7 +33706,7 @@
       <c r="D40" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F40" s="51" t="s">
@@ -30560,7 +33732,7 @@
       <c r="D41" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F41" s="51" t="s">
@@ -30586,7 +33758,7 @@
       <c r="D42" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F42" s="51" t="s">
@@ -30612,7 +33784,7 @@
       <c r="D43" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="51" t="s">
@@ -30638,7 +33810,7 @@
       <c r="D44" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F44" s="51" t="s">
@@ -30664,7 +33836,7 @@
       <c r="D45" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F45" s="51" t="s">
@@ -30690,7 +33862,7 @@
       <c r="D46" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="113" t="s">
+      <c r="E46" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F46" s="51" t="s">
@@ -30716,7 +33888,7 @@
       <c r="D47" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="51" t="s">
@@ -30742,7 +33914,7 @@
       <c r="D48" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="113" t="s">
+      <c r="E48" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F48" s="51" t="s">
@@ -30768,7 +33940,7 @@
       <c r="D49" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F49" s="51" t="s">
@@ -30794,7 +33966,7 @@
       <c r="D50" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F50" s="51" t="s">
@@ -30820,7 +33992,7 @@
       <c r="D51" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="113" t="s">
+      <c r="E51" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="51" t="s">
@@ -30846,7 +34018,7 @@
       <c r="D52" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F52" s="51" t="s">
@@ -30872,7 +34044,7 @@
       <c r="D53" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F53" s="51" t="s">
@@ -30949,7 +34121,7 @@
       <c r="I59" s="35"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="115" t="s">
         <v>192</v>
       </c>
       <c r="C60" s="35"/>
